--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -966,9 +966,6 @@
     <t>Señala el medio de comunicación adecuado</t>
   </si>
   <si>
-    <t>Presentar tres contenedores con los titulos "Lenguaje", "Habla", "Lengua". El estudiante entonces deberá asociar a estos imágenes correspondientes. Cuando se quiera incluir un texto, se puede hacer la siguiente operación: guardar el texto en Word en formato pdf, y luego cambiar el formato a jpg con el Adobe u otro. Incluir viñetas, globos de diálogo, etc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">(DBA: 10,12) Observar cambio pequeño en la descripción. Revisar fichas. </t>
   </si>
   <si>
@@ -1027,13 +1024,16 @@
   </si>
   <si>
     <t>(DBA:4) Presentar fragmentos de tipos de noticias para ser grabados. El recurso en plataforma llamado "Diferencia entre una noticia y una crónica" puede servir de modelo. No se puede aprovechar porque el contenido es para España.</t>
+  </si>
+  <si>
+    <t>Presentar tres contenedores con los titulos "Lenguaje", "Habla", "Lengua". El estudiante entonces deberá asociar a estos imágenes correspondientes. Cuando se quiera incluir un texto, se puede hacer la siguiente operación: guardar el texto en Word en formato pdf, y luego cambiar el formato a jpg con Adobe u otro. Incluir viñetas, globos de diálogo, símbolos, signos en diferentes idiomas, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,13 +1097,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1500,6 +1493,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,9 +1504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="143">
@@ -1923,7 +1916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1934,10 +1927,10 @@
   <dimension ref="A1:NU65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1972,94 +1965,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:21" s="24" customFormat="1" ht="28">
       <c r="A3" s="17" t="s">
@@ -2344,7 +2337,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="24" customFormat="1" ht="70">
+    <row r="8" spans="1:21" s="24" customFormat="1" ht="84">
       <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
@@ -2380,7 +2373,7 @@
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="22" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>19</v>
@@ -2437,7 +2430,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P9" s="23" t="s">
         <v>19</v>
@@ -2606,7 +2599,7 @@
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P12" s="23" t="s">
         <v>19</v>
@@ -2665,7 +2658,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P13" s="23" t="s">
         <v>19</v>
@@ -2724,7 +2717,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>19</v>
@@ -2781,7 +2774,7 @@
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
       <c r="O15" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P15" s="52" t="s">
         <v>19</v>
@@ -2842,7 +2835,7 @@
         <v>37</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>19</v>
@@ -2901,7 +2894,7 @@
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>19</v>
@@ -2958,7 +2951,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P18" s="23" t="s">
         <v>20</v>
@@ -3307,7 +3300,7 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" s="23">
         <v>22</v>
@@ -3325,7 +3318,7 @@
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>19</v>
@@ -3391,7 +3384,7 @@
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P25" s="23" t="s">
         <v>19</v>
@@ -3452,7 +3445,7 @@
         <v>42</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P26" s="21" t="s">
         <v>19</v>
@@ -3511,7 +3504,7 @@
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P27" s="21" t="s">
         <v>19</v>
@@ -3570,7 +3563,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P28" s="21" t="s">
         <v>19</v>
@@ -3694,7 +3687,7 @@
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>19</v>
@@ -4040,7 +4033,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
       <c r="O36" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>19</v>
@@ -4808,7 +4801,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>19</v>
@@ -5229,7 +5222,7 @@
       </c>
       <c r="N44" s="31"/>
       <c r="O44" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P44" s="40" t="s">
         <v>19</v>
@@ -5652,7 +5645,7 @@
         <v>45</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P45" s="40" t="s">
         <v>19</v>
@@ -6073,7 +6066,7 @@
       </c>
       <c r="N46" s="31"/>
       <c r="O46" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P46" s="40" t="s">
         <v>19</v>
@@ -7294,7 +7287,7 @@
       <c r="C49" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="56" t="s">
         <v>283</v>
       </c>
       <c r="E49" s="24"/>
@@ -7715,7 +7708,7 @@
       <c r="C50" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="56" t="s">
         <v>285</v>
       </c>
       <c r="E50" s="24"/>
@@ -8926,13 +8919,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -8946,9 +8932,15 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="325">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1028,12 +1028,44 @@
   <si>
     <t>Presentar tres contenedores con los titulos "Lenguaje", "Habla", "Lengua". El estudiante entonces deberá asociar a estos imágenes correspondientes. Cuando se quiera incluir un texto, se puede hacer la siguiente operación: guardar el texto en Word en formato pdf, y luego cambiar el formato a jpg con Adobe u otro. Incluir viñetas, globos de diálogo, símbolos, signos en diferentes idiomas, etc.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recurso elaborado por autor. Aprovado para digitalizar. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Observar cambios en titulo y descripción.</t>
+    </r>
+  </si>
+  <si>
+    <t>Recurso M2A-03</t>
+  </si>
+  <si>
+    <t>Completa el texto con palabras homónimas y polisémicas</t>
+  </si>
+  <si>
+    <t>Actividad para ubicar palabras homónimas y polisémicas de acuerdo al contexto</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la diferencia entre las palabras homónimas y las polisémicas</t>
+  </si>
+  <si>
+    <t>Actividad para poner en práctica la diferencia entre las palabras homónimas y polisémicas</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1137,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1203,7 +1241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1347,8 +1385,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1496,6 +1546,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,8 +1558,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="155">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1578,6 +1640,12 @@
     <cellStyle name="Hipervínculo" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1649,6 +1717,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1916,7 +1990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,13 +1998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NU65"/>
+  <dimension ref="A1:NU75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1964,97 +2038,97 @@
     <col min="28" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="57"/>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-    </row>
-    <row r="3" spans="1:21" s="24" customFormat="1" ht="28">
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A3" s="17" t="s">
         <v>68</v>
       </c>
@@ -2110,8 +2184,9 @@
       <c r="U3" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="24" customFormat="1" ht="28">
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
@@ -2167,8 +2242,9 @@
       <c r="U4" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="24" customFormat="1" ht="28">
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A5" s="17" t="s">
         <v>68</v>
       </c>
@@ -2224,8 +2300,9 @@
       <c r="U5" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="24" customFormat="1" ht="42">
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="42">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -2281,8 +2358,9 @@
       <c r="U6" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="24" customFormat="1">
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" s="24" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -2336,8 +2414,9 @@
       <c r="U7" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="24" customFormat="1" ht="84">
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="84">
       <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
@@ -2372,7 +2451,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="23"/>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="57" t="s">
         <v>317</v>
       </c>
       <c r="P8" s="21" t="s">
@@ -2393,8 +2472,9 @@
       <c r="U8" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="24" customFormat="1" ht="24" customHeight="1">
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>68</v>
       </c>
@@ -2447,11 +2527,12 @@
       <c r="T9" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="24" customFormat="1" ht="28">
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A10" s="17" t="s">
         <v>68</v>
       </c>
@@ -2508,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="24" customFormat="1" ht="28">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A11" s="17" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="24" customFormat="1" ht="61.5" customHeight="1">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="61.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>68</v>
       </c>
@@ -2620,7 +2701,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="35.25" customHeight="1">
+    <row r="13" spans="1:22" ht="35.25" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>68</v>
       </c>
@@ -2679,7 +2760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="35.25" customHeight="1">
+    <row r="14" spans="1:22" ht="35.25" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>68</v>
       </c>
@@ -2738,7 +2819,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="37.5" customHeight="1">
+    <row r="15" spans="1:22" ht="37.5" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>68</v>
       </c>
@@ -2795,7 +2876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="37.5" customHeight="1">
+    <row r="16" spans="1:22" ht="37.5" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>68</v>
       </c>
@@ -3210,7 +3291,6 @@
       <c r="U22" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
@@ -3236,43 +3316,43 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="34" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="H23" s="23">
         <v>21</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="34" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="N23" s="23"/>
-      <c r="O23" s="34" t="s">
-        <v>234</v>
+      <c r="O23" s="61" t="s">
+        <v>318</v>
       </c>
       <c r="P23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="T23" s="23" t="s">
-        <v>231</v>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="U23" s="23" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
@@ -3282,7 +3362,7 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="32.25" customHeight="1">
+    <row r="24" spans="1:28" ht="30" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>68</v>
       </c>
@@ -3295,19 +3375,19 @@
       <c r="D24" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="23"/>
+      <c r="E24" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="34" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="H24" s="23">
         <v>22</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="32" t="s">
-        <v>236</v>
+      <c r="J24" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>70</v>
@@ -3317,61 +3397,61 @@
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="22" t="s">
-        <v>306</v>
+      <c r="O24" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="23" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="R24" s="23" t="s">
         <v>95</v>
       </c>
       <c r="S24" s="23" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-    </row>
-    <row r="25" spans="1:28" ht="42">
+        <v>232</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+    </row>
+    <row r="25" spans="1:28" ht="30" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="23"/>
+        <v>136</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="34" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="H25" s="23">
         <v>23</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="32" t="s">
-        <v>238</v>
+      <c r="J25" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>69</v>
@@ -3380,91 +3460,101 @@
         <v>32</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="N25" s="23"/>
-      <c r="O25" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P25" s="23" t="s">
+      <c r="O25" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="63">
         <v>6</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="T25" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="U25" s="25" t="s">
+      <c r="T25" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="U25" s="23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="56">
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+    </row>
+    <row r="26" spans="1:28" ht="32.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26" s="21">
+        <v>136</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="23">
         <v>24</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="P26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="23">
-        <v>6</v>
+      <c r="Q26" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="T26" s="23" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="U26" s="23" t="s">
-        <v>169</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
     </row>
     <row r="27" spans="1:28" ht="42">
       <c r="A27" s="17" t="s">
@@ -3480,52 +3570,52 @@
         <v>137</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="21">
+        <v>148</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="23">
         <v>25</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="21" t="s">
+      <c r="I27" s="23"/>
+      <c r="J27" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="N27" s="23"/>
-      <c r="O27" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="P27" s="21" t="s">
+      <c r="O27" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="P27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="25">
         <v>6</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="R27" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="S27" s="23" t="s">
+      <c r="S27" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="T27" s="23" t="s">
-        <v>244</v>
+      <c r="T27" s="26" t="s">
+        <v>237</v>
       </c>
       <c r="U27" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="28">
+    <row r="28" spans="1:28" ht="56">
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
@@ -3536,14 +3626,14 @@
         <v>92</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="17" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3551,105 +3641,101 @@
       <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>115</v>
+      <c r="J28" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="22" t="s">
-        <v>310</v>
+      <c r="N28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>308</v>
       </c>
       <c r="P28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="23" t="s">
-        <v>98</v>
+      <c r="Q28" s="23">
+        <v>6</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="S28" s="23" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="U28" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="28">
-      <c r="A29" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="42">
+      <c r="A29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="17" t="s">
-        <v>117</v>
+      <c r="G29" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>118</v>
+      <c r="I29" s="21"/>
+      <c r="J29" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="N29" s="23"/>
-      <c r="O29" s="22" t="s">
-        <v>249</v>
+      <c r="O29" s="27" t="s">
+        <v>309</v>
       </c>
       <c r="P29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="23" t="s">
-        <v>98</v>
+      <c r="Q29" s="23">
+        <v>6</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="S29" s="23" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="T29" s="23" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="U29" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="V29" s="15"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:28" ht="42">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="28">
       <c r="A30" s="17" t="s">
         <v>68</v>
       </c>
@@ -3663,70 +3749,70 @@
         <v>138</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" s="22" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>84</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="25">
-        <v>6</v>
-      </c>
-      <c r="R30" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T30" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>160</v>
+      <c r="Q30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="28">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>151</v>
+      <c r="E31" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3735,18 +3821,18 @@
         <v>19</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="22" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="P31" s="21" t="s">
         <v>19</v>
@@ -3761,13 +3847,19 @@
         <v>114</v>
       </c>
       <c r="T31" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U31" s="23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="28">
+      <c r="V31" s="15"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" ht="42">
       <c r="A32" s="17" t="s">
         <v>68</v>
       </c>
@@ -3781,49 +3873,49 @@
         <v>138</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="I32" s="21"/>
       <c r="J32" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="N32" s="23"/>
       <c r="O32" s="22" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>199</v>
+      <c r="Q32" s="25">
+        <v>6</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="S32" s="25" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>121</v>
+        <v>250</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:385" ht="28">
@@ -3839,12 +3931,12 @@
       <c r="D33" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>253</v>
+      <c r="E33" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -3853,13 +3945,13 @@
         <v>19</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -3870,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="Q33" s="23" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="R33" s="23" t="s">
         <v>95</v>
@@ -3879,13 +3971,13 @@
         <v>114</v>
       </c>
       <c r="T33" s="23" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="U33" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:385" ht="18" customHeight="1">
+    <row r="34" spans="1:385" ht="28">
       <c r="A34" s="17" t="s">
         <v>68</v>
       </c>
@@ -3898,34 +3990,38 @@
       <c r="D34" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>170</v>
+      <c r="E34" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="J34" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K34" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
-      <c r="O34" s="22"/>
+      <c r="O34" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="P34" s="21" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="R34" s="25" t="s">
         <v>95</v>
@@ -3934,13 +4030,13 @@
         <v>114</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:385" ht="30" customHeight="1">
+        <v>254</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:385" ht="28">
       <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
@@ -3953,30 +4049,32 @@
       <c r="D35" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>170</v>
+      <c r="E35" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="29" t="s">
-        <v>262</v>
+      <c r="G35" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="55" t="s">
-        <v>263</v>
+      <c r="I35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="22" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>19</v>
@@ -3991,13 +4089,13 @@
         <v>114</v>
       </c>
       <c r="T35" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:385" ht="33.75" customHeight="1">
+    <row r="36" spans="1:385" ht="18" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>68</v>
       </c>
@@ -4010,19 +4108,19 @@
       <c r="D36" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>152</v>
+      <c r="E36" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="22" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>70</v>
@@ -4032,29 +4130,27 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
-      <c r="O36" s="22" t="s">
-        <v>312</v>
-      </c>
+      <c r="O36" s="22"/>
       <c r="P36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="23" t="s">
+      <c r="Q36" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="R36" s="23" t="s">
+      <c r="R36" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="S36" s="23" t="s">
+      <c r="S36" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="T36" s="23" t="s">
-        <v>265</v>
+      <c r="T36" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:385" ht="33.75" customHeight="1">
+    <row r="37" spans="1:385" ht="30" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>68</v>
       </c>
@@ -4067,53 +4163,51 @@
       <c r="D37" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>152</v>
+      <c r="E37" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="17" t="s">
-        <v>269</v>
+      <c r="G37" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="H37" s="21">
         <v>35</v>
       </c>
       <c r="I37" s="21"/>
-      <c r="J37" s="22" t="s">
-        <v>270</v>
+      <c r="J37" s="55" t="s">
+        <v>263</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="M37" s="23"/>
       <c r="N37" s="23"/>
       <c r="O37" s="22" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>6</v>
-      </c>
-      <c r="R37" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T37" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:385" ht="28">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:385" ht="33.75" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>68</v>
       </c>
@@ -4123,56 +4217,54 @@
       <c r="C38" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="35"/>
+      <c r="D38" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="18"/>
       <c r="G38" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="40">
+        <v>264</v>
+      </c>
+      <c r="H38" s="21">
         <v>36</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="P38" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="P38" s="40" t="s">
-        <v>19</v>
-      </c>
       <c r="Q38" s="23" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="R38" s="23" t="s">
         <v>95</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="U38" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:385" ht="28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:385" ht="33.75" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>68</v>
       </c>
@@ -4182,57 +4274,56 @@
       <c r="C39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>153</v>
+      <c r="D39" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="17" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="H39" s="21">
         <v>37</v>
       </c>
-      <c r="I39" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="I39" s="21"/>
       <c r="J39" s="22" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="N39" s="23"/>
       <c r="O39" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S39" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="T39" s="23" t="s">
-        <v>134</v>
+        <v>20</v>
+      </c>
+      <c r="Q39" s="25">
+        <v>6</v>
+      </c>
+      <c r="R39" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="T39" s="25" t="s">
+        <v>319</v>
       </c>
       <c r="U39" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="V39" s="16"/>
-    </row>
-    <row r="40" spans="1:385">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:385" ht="28">
       <c r="A40" s="17" t="s">
         <v>68</v>
       </c>
@@ -4246,49 +4337,49 @@
         <v>139</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="F40" s="35"/>
       <c r="G40" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="21">
+        <v>123</v>
+      </c>
+      <c r="H40" s="40">
         <v>38</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="L40" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="P40" s="21" t="s">
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="R40" s="23" t="s">
         <v>95</v>
       </c>
       <c r="S40" s="23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="T40" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="U40" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:385" ht="28">
@@ -4304,49 +4395,54 @@
       <c r="D41" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>155</v>
+      <c r="E41" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="27" t="s">
-        <v>126</v>
+      <c r="G41" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="H41" s="21">
         <v>39</v>
       </c>
-      <c r="I41" s="21"/>
+      <c r="I41" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" s="22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
-      <c r="O41" s="22"/>
+      <c r="O41" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="P41" s="21" t="s">
         <v>19</v>
       </c>
       <c r="Q41" s="23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R41" s="23" t="s">
         <v>95</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="U41" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:385" ht="28">
+        <v>132</v>
+      </c>
+      <c r="V41" s="16"/>
+    </row>
+    <row r="42" spans="1:385">
       <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
@@ -4360,412 +4456,52 @@
         <v>139</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="34" t="s">
-        <v>171</v>
+      <c r="G42" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="H42" s="21">
         <v>40</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="34" t="s">
-        <v>129</v>
+      <c r="I42" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
-      <c r="O42" s="22"/>
+      <c r="O42" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="P42" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R42" s="23" t="s">
         <v>95</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="15"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
-      <c r="AR42" s="15"/>
-      <c r="AS42" s="15"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="15"/>
-      <c r="AV42" s="15"/>
-      <c r="AW42" s="15"/>
-      <c r="AX42" s="15"/>
-      <c r="AY42" s="15"/>
-      <c r="AZ42" s="15"/>
-      <c r="BA42" s="15"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="15"/>
-      <c r="BD42" s="15"/>
-      <c r="BE42" s="15"/>
-      <c r="BF42" s="15"/>
-      <c r="BG42" s="15"/>
-      <c r="BH42" s="15"/>
-      <c r="BI42" s="15"/>
-      <c r="BJ42" s="15"/>
-      <c r="BK42" s="15"/>
-      <c r="BL42" s="15"/>
-      <c r="BM42" s="15"/>
-      <c r="BN42" s="15"/>
-      <c r="BO42" s="15"/>
-      <c r="BP42" s="15"/>
-      <c r="BQ42" s="15"/>
-      <c r="BR42" s="15"/>
-      <c r="BS42" s="15"/>
-      <c r="BT42" s="15"/>
-      <c r="BU42" s="15"/>
-      <c r="BV42" s="15"/>
-      <c r="BW42" s="15"/>
-      <c r="BX42" s="15"/>
-      <c r="BY42" s="15"/>
-      <c r="BZ42" s="15"/>
-      <c r="CA42" s="15"/>
-      <c r="CB42" s="15"/>
-      <c r="CC42" s="15"/>
-      <c r="CD42" s="15"/>
-      <c r="CE42" s="15"/>
-      <c r="CF42" s="15"/>
-      <c r="CG42" s="15"/>
-      <c r="CH42" s="15"/>
-      <c r="CI42" s="15"/>
-      <c r="CJ42" s="15"/>
-      <c r="CK42" s="15"/>
-      <c r="CL42" s="15"/>
-      <c r="CM42" s="15"/>
-      <c r="CN42" s="15"/>
-      <c r="CO42" s="15"/>
-      <c r="CP42" s="15"/>
-      <c r="CQ42" s="15"/>
-      <c r="CR42" s="15"/>
-      <c r="CS42" s="15"/>
-      <c r="CT42" s="15"/>
-      <c r="CU42" s="15"/>
-      <c r="CV42" s="15"/>
-      <c r="CW42" s="15"/>
-      <c r="CX42" s="15"/>
-      <c r="CY42" s="15"/>
-      <c r="CZ42" s="15"/>
-      <c r="DA42" s="15"/>
-      <c r="DB42" s="15"/>
-      <c r="DC42" s="15"/>
-      <c r="DD42" s="15"/>
-      <c r="DE42" s="15"/>
-      <c r="DF42" s="15"/>
-      <c r="DG42" s="15"/>
-      <c r="DH42" s="15"/>
-      <c r="DI42" s="15"/>
-      <c r="DJ42" s="15"/>
-      <c r="DK42" s="15"/>
-      <c r="DL42" s="15"/>
-      <c r="DM42" s="15"/>
-      <c r="DN42" s="15"/>
-      <c r="DO42" s="15"/>
-      <c r="DP42" s="15"/>
-      <c r="DQ42" s="15"/>
-      <c r="DR42" s="15"/>
-      <c r="DS42" s="15"/>
-      <c r="DT42" s="15"/>
-      <c r="DU42" s="15"/>
-      <c r="DV42" s="15"/>
-      <c r="DW42" s="15"/>
-      <c r="DX42" s="15"/>
-      <c r="DY42" s="15"/>
-      <c r="DZ42" s="15"/>
-      <c r="EA42" s="15"/>
-      <c r="EB42" s="15"/>
-      <c r="EC42" s="15"/>
-      <c r="ED42" s="15"/>
-      <c r="EE42" s="15"/>
-      <c r="EF42" s="15"/>
-      <c r="EG42" s="15"/>
-      <c r="EH42" s="15"/>
-      <c r="EI42" s="15"/>
-      <c r="EJ42" s="15"/>
-      <c r="EK42" s="15"/>
-      <c r="EL42" s="15"/>
-      <c r="EM42" s="15"/>
-      <c r="EN42" s="15"/>
-      <c r="EO42" s="15"/>
-      <c r="EP42" s="15"/>
-      <c r="EQ42" s="15"/>
-      <c r="ER42" s="15"/>
-      <c r="ES42" s="15"/>
-      <c r="ET42" s="15"/>
-      <c r="EU42" s="15"/>
-      <c r="EV42" s="15"/>
-      <c r="EW42" s="15"/>
-      <c r="EX42" s="15"/>
-      <c r="EY42" s="15"/>
-      <c r="EZ42" s="15"/>
-      <c r="FA42" s="15"/>
-      <c r="FB42" s="15"/>
-      <c r="FC42" s="15"/>
-      <c r="FD42" s="15"/>
-      <c r="FE42" s="15"/>
-      <c r="FF42" s="15"/>
-      <c r="FG42" s="15"/>
-      <c r="FH42" s="15"/>
-      <c r="FI42" s="15"/>
-      <c r="FJ42" s="15"/>
-      <c r="FK42" s="15"/>
-      <c r="FL42" s="15"/>
-      <c r="FM42" s="15"/>
-      <c r="FN42" s="15"/>
-      <c r="FO42" s="15"/>
-      <c r="FP42" s="15"/>
-      <c r="FQ42" s="15"/>
-      <c r="FR42" s="15"/>
-      <c r="FS42" s="15"/>
-      <c r="FT42" s="15"/>
-      <c r="FU42" s="15"/>
-      <c r="FV42" s="15"/>
-      <c r="FW42" s="15"/>
-      <c r="FX42" s="15"/>
-      <c r="FY42" s="15"/>
-      <c r="FZ42" s="15"/>
-      <c r="GA42" s="15"/>
-      <c r="GB42" s="15"/>
-      <c r="GC42" s="15"/>
-      <c r="GD42" s="15"/>
-      <c r="GE42" s="15"/>
-      <c r="GF42" s="15"/>
-      <c r="GG42" s="15"/>
-      <c r="GH42" s="15"/>
-      <c r="GI42" s="15"/>
-      <c r="GJ42" s="15"/>
-      <c r="GK42" s="15"/>
-      <c r="GL42" s="15"/>
-      <c r="GM42" s="15"/>
-      <c r="GN42" s="15"/>
-      <c r="GO42" s="15"/>
-      <c r="GP42" s="15"/>
-      <c r="GQ42" s="15"/>
-      <c r="GR42" s="15"/>
-      <c r="GS42" s="15"/>
-      <c r="GT42" s="15"/>
-      <c r="GU42" s="15"/>
-      <c r="GV42" s="15"/>
-      <c r="GW42" s="15"/>
-      <c r="GX42" s="15"/>
-      <c r="GY42" s="15"/>
-      <c r="GZ42" s="15"/>
-      <c r="HA42" s="15"/>
-      <c r="HB42" s="15"/>
-      <c r="HC42" s="15"/>
-      <c r="HD42" s="15"/>
-      <c r="HE42" s="15"/>
-      <c r="HF42" s="15"/>
-      <c r="HG42" s="15"/>
-      <c r="HH42" s="15"/>
-      <c r="HI42" s="15"/>
-      <c r="HJ42" s="15"/>
-      <c r="HK42" s="15"/>
-      <c r="HL42" s="15"/>
-      <c r="HM42" s="15"/>
-      <c r="HN42" s="15"/>
-      <c r="HO42" s="15"/>
-      <c r="HP42" s="15"/>
-      <c r="HQ42" s="15"/>
-      <c r="HR42" s="15"/>
-      <c r="HS42" s="15"/>
-      <c r="HT42" s="15"/>
-      <c r="HU42" s="15"/>
-      <c r="HV42" s="15"/>
-      <c r="HW42" s="15"/>
-      <c r="HX42" s="15"/>
-      <c r="HY42" s="15"/>
-      <c r="HZ42" s="15"/>
-      <c r="IA42" s="15"/>
-      <c r="IB42" s="15"/>
-      <c r="IC42" s="15"/>
-      <c r="ID42" s="15"/>
-      <c r="IE42" s="15"/>
-      <c r="IF42" s="15"/>
-      <c r="IG42" s="15"/>
-      <c r="IH42" s="15"/>
-      <c r="II42" s="15"/>
-      <c r="IJ42" s="15"/>
-      <c r="IK42" s="15"/>
-      <c r="IL42" s="15"/>
-      <c r="IM42" s="15"/>
-      <c r="IN42" s="15"/>
-      <c r="IO42" s="15"/>
-      <c r="IP42" s="15"/>
-      <c r="IQ42" s="15"/>
-      <c r="IR42" s="15"/>
-      <c r="IS42" s="15"/>
-      <c r="IT42" s="15"/>
-      <c r="IU42" s="15"/>
-      <c r="IV42" s="15"/>
-      <c r="IW42" s="15"/>
-      <c r="IX42" s="15"/>
-      <c r="IY42" s="15"/>
-      <c r="IZ42" s="15"/>
-      <c r="JA42" s="15"/>
-      <c r="JB42" s="15"/>
-      <c r="JC42" s="15"/>
-      <c r="JD42" s="15"/>
-      <c r="JE42" s="15"/>
-      <c r="JF42" s="15"/>
-      <c r="JG42" s="15"/>
-      <c r="JH42" s="15"/>
-      <c r="JI42" s="15"/>
-      <c r="JJ42" s="15"/>
-      <c r="JK42" s="15"/>
-      <c r="JL42" s="15"/>
-      <c r="JM42" s="15"/>
-      <c r="JN42" s="15"/>
-      <c r="JO42" s="15"/>
-      <c r="JP42" s="15"/>
-      <c r="JQ42" s="15"/>
-      <c r="JR42" s="15"/>
-      <c r="JS42" s="15"/>
-      <c r="JT42" s="15"/>
-      <c r="JU42" s="15"/>
-      <c r="JV42" s="15"/>
-      <c r="JW42" s="15"/>
-      <c r="JX42" s="15"/>
-      <c r="JY42" s="15"/>
-      <c r="JZ42" s="15"/>
-      <c r="KA42" s="15"/>
-      <c r="KB42" s="15"/>
-      <c r="KC42" s="15"/>
-      <c r="KD42" s="15"/>
-      <c r="KE42" s="15"/>
-      <c r="KF42" s="15"/>
-      <c r="KG42" s="15"/>
-      <c r="KH42" s="15"/>
-      <c r="KI42" s="15"/>
-      <c r="KJ42" s="15"/>
-      <c r="KK42" s="15"/>
-      <c r="KL42" s="15"/>
-      <c r="KM42" s="15"/>
-      <c r="KN42" s="15"/>
-      <c r="KO42" s="15"/>
-      <c r="KP42" s="15"/>
-      <c r="KQ42" s="15"/>
-      <c r="KR42" s="15"/>
-      <c r="KS42" s="15"/>
-      <c r="KT42" s="15"/>
-      <c r="KU42" s="15"/>
-      <c r="KV42" s="15"/>
-      <c r="KW42" s="15"/>
-      <c r="KX42" s="15"/>
-      <c r="KY42" s="15"/>
-      <c r="KZ42" s="15"/>
-      <c r="LA42" s="15"/>
-      <c r="LB42" s="15"/>
-      <c r="LC42" s="15"/>
-      <c r="LD42" s="15"/>
-      <c r="LE42" s="15"/>
-      <c r="LF42" s="15"/>
-      <c r="LG42" s="15"/>
-      <c r="LH42" s="15"/>
-      <c r="LI42" s="15"/>
-      <c r="LJ42" s="15"/>
-      <c r="LK42" s="15"/>
-      <c r="LL42" s="15"/>
-      <c r="LM42" s="15"/>
-      <c r="LN42" s="15"/>
-      <c r="LO42" s="15"/>
-      <c r="LP42" s="15"/>
-      <c r="LQ42" s="15"/>
-      <c r="LR42" s="15"/>
-      <c r="LS42" s="15"/>
-      <c r="LT42" s="15"/>
-      <c r="LU42" s="15"/>
-      <c r="LV42" s="15"/>
-      <c r="LW42" s="15"/>
-      <c r="LX42" s="15"/>
-      <c r="LY42" s="15"/>
-      <c r="LZ42" s="15"/>
-      <c r="MA42" s="15"/>
-      <c r="MB42" s="15"/>
-      <c r="MC42" s="15"/>
-      <c r="MD42" s="15"/>
-      <c r="ME42" s="15"/>
-      <c r="MF42" s="15"/>
-      <c r="MG42" s="15"/>
-      <c r="MH42" s="15"/>
-      <c r="MI42" s="15"/>
-      <c r="MJ42" s="15"/>
-      <c r="MK42" s="15"/>
-      <c r="ML42" s="15"/>
-      <c r="MM42" s="15"/>
-      <c r="MN42" s="15"/>
-      <c r="MO42" s="15"/>
-      <c r="MP42" s="15"/>
-      <c r="MQ42" s="15"/>
-      <c r="MR42" s="15"/>
-      <c r="MS42" s="15"/>
-      <c r="MT42" s="15"/>
-      <c r="MU42" s="15"/>
-      <c r="MV42" s="15"/>
-      <c r="MW42" s="15"/>
-      <c r="MX42" s="15"/>
-      <c r="MY42" s="15"/>
-      <c r="MZ42" s="15"/>
-      <c r="NA42" s="15"/>
-      <c r="NB42" s="15"/>
-      <c r="NC42" s="15"/>
-      <c r="ND42" s="15"/>
-      <c r="NE42" s="15"/>
-      <c r="NF42" s="15"/>
-      <c r="NG42" s="15"/>
-      <c r="NH42" s="15"/>
-      <c r="NI42" s="15"/>
-      <c r="NJ42" s="15"/>
-      <c r="NK42" s="15"/>
-      <c r="NL42" s="15"/>
-      <c r="NM42" s="15"/>
-      <c r="NN42" s="15"/>
-      <c r="NO42" s="15"/>
-      <c r="NP42" s="15"/>
-      <c r="NQ42" s="15"/>
-      <c r="NR42" s="15"/>
-      <c r="NS42" s="15"/>
-      <c r="NT42" s="15"/>
-      <c r="NU42" s="15"/>
-    </row>
-    <row r="43" spans="1:385" ht="70">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:385" ht="28">
       <c r="A43" s="17" t="s">
         <v>68</v>
       </c>
@@ -4778,415 +4514,49 @@
       <c r="D43" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>145</v>
+      <c r="E43" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="27" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="H43" s="21">
         <v>41</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="22" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
-      <c r="O43" s="22" t="s">
-        <v>313</v>
-      </c>
+      <c r="O43" s="22"/>
       <c r="P43" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="23">
-        <v>6</v>
+      <c r="Q43" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="S43" s="23" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="U43" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="15"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
-      <c r="AR43" s="15"/>
-      <c r="AS43" s="15"/>
-      <c r="AT43" s="15"/>
-      <c r="AU43" s="15"/>
-      <c r="AV43" s="15"/>
-      <c r="AW43" s="15"/>
-      <c r="AX43" s="15"/>
-      <c r="AY43" s="15"/>
-      <c r="AZ43" s="15"/>
-      <c r="BA43" s="15"/>
-      <c r="BB43" s="15"/>
-      <c r="BC43" s="15"/>
-      <c r="BD43" s="15"/>
-      <c r="BE43" s="15"/>
-      <c r="BF43" s="15"/>
-      <c r="BG43" s="15"/>
-      <c r="BH43" s="15"/>
-      <c r="BI43" s="15"/>
-      <c r="BJ43" s="15"/>
-      <c r="BK43" s="15"/>
-      <c r="BL43" s="15"/>
-      <c r="BM43" s="15"/>
-      <c r="BN43" s="15"/>
-      <c r="BO43" s="15"/>
-      <c r="BP43" s="15"/>
-      <c r="BQ43" s="15"/>
-      <c r="BR43" s="15"/>
-      <c r="BS43" s="15"/>
-      <c r="BT43" s="15"/>
-      <c r="BU43" s="15"/>
-      <c r="BV43" s="15"/>
-      <c r="BW43" s="15"/>
-      <c r="BX43" s="15"/>
-      <c r="BY43" s="15"/>
-      <c r="BZ43" s="15"/>
-      <c r="CA43" s="15"/>
-      <c r="CB43" s="15"/>
-      <c r="CC43" s="15"/>
-      <c r="CD43" s="15"/>
-      <c r="CE43" s="15"/>
-      <c r="CF43" s="15"/>
-      <c r="CG43" s="15"/>
-      <c r="CH43" s="15"/>
-      <c r="CI43" s="15"/>
-      <c r="CJ43" s="15"/>
-      <c r="CK43" s="15"/>
-      <c r="CL43" s="15"/>
-      <c r="CM43" s="15"/>
-      <c r="CN43" s="15"/>
-      <c r="CO43" s="15"/>
-      <c r="CP43" s="15"/>
-      <c r="CQ43" s="15"/>
-      <c r="CR43" s="15"/>
-      <c r="CS43" s="15"/>
-      <c r="CT43" s="15"/>
-      <c r="CU43" s="15"/>
-      <c r="CV43" s="15"/>
-      <c r="CW43" s="15"/>
-      <c r="CX43" s="15"/>
-      <c r="CY43" s="15"/>
-      <c r="CZ43" s="15"/>
-      <c r="DA43" s="15"/>
-      <c r="DB43" s="15"/>
-      <c r="DC43" s="15"/>
-      <c r="DD43" s="15"/>
-      <c r="DE43" s="15"/>
-      <c r="DF43" s="15"/>
-      <c r="DG43" s="15"/>
-      <c r="DH43" s="15"/>
-      <c r="DI43" s="15"/>
-      <c r="DJ43" s="15"/>
-      <c r="DK43" s="15"/>
-      <c r="DL43" s="15"/>
-      <c r="DM43" s="15"/>
-      <c r="DN43" s="15"/>
-      <c r="DO43" s="15"/>
-      <c r="DP43" s="15"/>
-      <c r="DQ43" s="15"/>
-      <c r="DR43" s="15"/>
-      <c r="DS43" s="15"/>
-      <c r="DT43" s="15"/>
-      <c r="DU43" s="15"/>
-      <c r="DV43" s="15"/>
-      <c r="DW43" s="15"/>
-      <c r="DX43" s="15"/>
-      <c r="DY43" s="15"/>
-      <c r="DZ43" s="15"/>
-      <c r="EA43" s="15"/>
-      <c r="EB43" s="15"/>
-      <c r="EC43" s="15"/>
-      <c r="ED43" s="15"/>
-      <c r="EE43" s="15"/>
-      <c r="EF43" s="15"/>
-      <c r="EG43" s="15"/>
-      <c r="EH43" s="15"/>
-      <c r="EI43" s="15"/>
-      <c r="EJ43" s="15"/>
-      <c r="EK43" s="15"/>
-      <c r="EL43" s="15"/>
-      <c r="EM43" s="15"/>
-      <c r="EN43" s="15"/>
-      <c r="EO43" s="15"/>
-      <c r="EP43" s="15"/>
-      <c r="EQ43" s="15"/>
-      <c r="ER43" s="15"/>
-      <c r="ES43" s="15"/>
-      <c r="ET43" s="15"/>
-      <c r="EU43" s="15"/>
-      <c r="EV43" s="15"/>
-      <c r="EW43" s="15"/>
-      <c r="EX43" s="15"/>
-      <c r="EY43" s="15"/>
-      <c r="EZ43" s="15"/>
-      <c r="FA43" s="15"/>
-      <c r="FB43" s="15"/>
-      <c r="FC43" s="15"/>
-      <c r="FD43" s="15"/>
-      <c r="FE43" s="15"/>
-      <c r="FF43" s="15"/>
-      <c r="FG43" s="15"/>
-      <c r="FH43" s="15"/>
-      <c r="FI43" s="15"/>
-      <c r="FJ43" s="15"/>
-      <c r="FK43" s="15"/>
-      <c r="FL43" s="15"/>
-      <c r="FM43" s="15"/>
-      <c r="FN43" s="15"/>
-      <c r="FO43" s="15"/>
-      <c r="FP43" s="15"/>
-      <c r="FQ43" s="15"/>
-      <c r="FR43" s="15"/>
-      <c r="FS43" s="15"/>
-      <c r="FT43" s="15"/>
-      <c r="FU43" s="15"/>
-      <c r="FV43" s="15"/>
-      <c r="FW43" s="15"/>
-      <c r="FX43" s="15"/>
-      <c r="FY43" s="15"/>
-      <c r="FZ43" s="15"/>
-      <c r="GA43" s="15"/>
-      <c r="GB43" s="15"/>
-      <c r="GC43" s="15"/>
-      <c r="GD43" s="15"/>
-      <c r="GE43" s="15"/>
-      <c r="GF43" s="15"/>
-      <c r="GG43" s="15"/>
-      <c r="GH43" s="15"/>
-      <c r="GI43" s="15"/>
-      <c r="GJ43" s="15"/>
-      <c r="GK43" s="15"/>
-      <c r="GL43" s="15"/>
-      <c r="GM43" s="15"/>
-      <c r="GN43" s="15"/>
-      <c r="GO43" s="15"/>
-      <c r="GP43" s="15"/>
-      <c r="GQ43" s="15"/>
-      <c r="GR43" s="15"/>
-      <c r="GS43" s="15"/>
-      <c r="GT43" s="15"/>
-      <c r="GU43" s="15"/>
-      <c r="GV43" s="15"/>
-      <c r="GW43" s="15"/>
-      <c r="GX43" s="15"/>
-      <c r="GY43" s="15"/>
-      <c r="GZ43" s="15"/>
-      <c r="HA43" s="15"/>
-      <c r="HB43" s="15"/>
-      <c r="HC43" s="15"/>
-      <c r="HD43" s="15"/>
-      <c r="HE43" s="15"/>
-      <c r="HF43" s="15"/>
-      <c r="HG43" s="15"/>
-      <c r="HH43" s="15"/>
-      <c r="HI43" s="15"/>
-      <c r="HJ43" s="15"/>
-      <c r="HK43" s="15"/>
-      <c r="HL43" s="15"/>
-      <c r="HM43" s="15"/>
-      <c r="HN43" s="15"/>
-      <c r="HO43" s="15"/>
-      <c r="HP43" s="15"/>
-      <c r="HQ43" s="15"/>
-      <c r="HR43" s="15"/>
-      <c r="HS43" s="15"/>
-      <c r="HT43" s="15"/>
-      <c r="HU43" s="15"/>
-      <c r="HV43" s="15"/>
-      <c r="HW43" s="15"/>
-      <c r="HX43" s="15"/>
-      <c r="HY43" s="15"/>
-      <c r="HZ43" s="15"/>
-      <c r="IA43" s="15"/>
-      <c r="IB43" s="15"/>
-      <c r="IC43" s="15"/>
-      <c r="ID43" s="15"/>
-      <c r="IE43" s="15"/>
-      <c r="IF43" s="15"/>
-      <c r="IG43" s="15"/>
-      <c r="IH43" s="15"/>
-      <c r="II43" s="15"/>
-      <c r="IJ43" s="15"/>
-      <c r="IK43" s="15"/>
-      <c r="IL43" s="15"/>
-      <c r="IM43" s="15"/>
-      <c r="IN43" s="15"/>
-      <c r="IO43" s="15"/>
-      <c r="IP43" s="15"/>
-      <c r="IQ43" s="15"/>
-      <c r="IR43" s="15"/>
-      <c r="IS43" s="15"/>
-      <c r="IT43" s="15"/>
-      <c r="IU43" s="15"/>
-      <c r="IV43" s="15"/>
-      <c r="IW43" s="15"/>
-      <c r="IX43" s="15"/>
-      <c r="IY43" s="15"/>
-      <c r="IZ43" s="15"/>
-      <c r="JA43" s="15"/>
-      <c r="JB43" s="15"/>
-      <c r="JC43" s="15"/>
-      <c r="JD43" s="15"/>
-      <c r="JE43" s="15"/>
-      <c r="JF43" s="15"/>
-      <c r="JG43" s="15"/>
-      <c r="JH43" s="15"/>
-      <c r="JI43" s="15"/>
-      <c r="JJ43" s="15"/>
-      <c r="JK43" s="15"/>
-      <c r="JL43" s="15"/>
-      <c r="JM43" s="15"/>
-      <c r="JN43" s="15"/>
-      <c r="JO43" s="15"/>
-      <c r="JP43" s="15"/>
-      <c r="JQ43" s="15"/>
-      <c r="JR43" s="15"/>
-      <c r="JS43" s="15"/>
-      <c r="JT43" s="15"/>
-      <c r="JU43" s="15"/>
-      <c r="JV43" s="15"/>
-      <c r="JW43" s="15"/>
-      <c r="JX43" s="15"/>
-      <c r="JY43" s="15"/>
-      <c r="JZ43" s="15"/>
-      <c r="KA43" s="15"/>
-      <c r="KB43" s="15"/>
-      <c r="KC43" s="15"/>
-      <c r="KD43" s="15"/>
-      <c r="KE43" s="15"/>
-      <c r="KF43" s="15"/>
-      <c r="KG43" s="15"/>
-      <c r="KH43" s="15"/>
-      <c r="KI43" s="15"/>
-      <c r="KJ43" s="15"/>
-      <c r="KK43" s="15"/>
-      <c r="KL43" s="15"/>
-      <c r="KM43" s="15"/>
-      <c r="KN43" s="15"/>
-      <c r="KO43" s="15"/>
-      <c r="KP43" s="15"/>
-      <c r="KQ43" s="15"/>
-      <c r="KR43" s="15"/>
-      <c r="KS43" s="15"/>
-      <c r="KT43" s="15"/>
-      <c r="KU43" s="15"/>
-      <c r="KV43" s="15"/>
-      <c r="KW43" s="15"/>
-      <c r="KX43" s="15"/>
-      <c r="KY43" s="15"/>
-      <c r="KZ43" s="15"/>
-      <c r="LA43" s="15"/>
-      <c r="LB43" s="15"/>
-      <c r="LC43" s="15"/>
-      <c r="LD43" s="15"/>
-      <c r="LE43" s="15"/>
-      <c r="LF43" s="15"/>
-      <c r="LG43" s="15"/>
-      <c r="LH43" s="15"/>
-      <c r="LI43" s="15"/>
-      <c r="LJ43" s="15"/>
-      <c r="LK43" s="15"/>
-      <c r="LL43" s="15"/>
-      <c r="LM43" s="15"/>
-      <c r="LN43" s="15"/>
-      <c r="LO43" s="15"/>
-      <c r="LP43" s="15"/>
-      <c r="LQ43" s="15"/>
-      <c r="LR43" s="15"/>
-      <c r="LS43" s="15"/>
-      <c r="LT43" s="15"/>
-      <c r="LU43" s="15"/>
-      <c r="LV43" s="15"/>
-      <c r="LW43" s="15"/>
-      <c r="LX43" s="15"/>
-      <c r="LY43" s="15"/>
-      <c r="LZ43" s="15"/>
-      <c r="MA43" s="15"/>
-      <c r="MB43" s="15"/>
-      <c r="MC43" s="15"/>
-      <c r="MD43" s="15"/>
-      <c r="ME43" s="15"/>
-      <c r="MF43" s="15"/>
-      <c r="MG43" s="15"/>
-      <c r="MH43" s="15"/>
-      <c r="MI43" s="15"/>
-      <c r="MJ43" s="15"/>
-      <c r="MK43" s="15"/>
-      <c r="ML43" s="15"/>
-      <c r="MM43" s="15"/>
-      <c r="MN43" s="15"/>
-      <c r="MO43" s="15"/>
-      <c r="MP43" s="15"/>
-      <c r="MQ43" s="15"/>
-      <c r="MR43" s="15"/>
-      <c r="MS43" s="15"/>
-      <c r="MT43" s="15"/>
-      <c r="MU43" s="15"/>
-      <c r="MV43" s="15"/>
-      <c r="MW43" s="15"/>
-      <c r="MX43" s="15"/>
-      <c r="MY43" s="15"/>
-      <c r="MZ43" s="15"/>
-      <c r="NA43" s="15"/>
-      <c r="NB43" s="15"/>
-      <c r="NC43" s="15"/>
-      <c r="ND43" s="15"/>
-      <c r="NE43" s="15"/>
-      <c r="NF43" s="15"/>
-      <c r="NG43" s="15"/>
-      <c r="NH43" s="15"/>
-      <c r="NI43" s="15"/>
-      <c r="NJ43" s="15"/>
-      <c r="NK43" s="15"/>
-      <c r="NL43" s="15"/>
-      <c r="NM43" s="15"/>
-      <c r="NN43" s="15"/>
-      <c r="NO43" s="15"/>
-      <c r="NP43" s="15"/>
-      <c r="NQ43" s="15"/>
-      <c r="NR43" s="15"/>
-      <c r="NS43" s="15"/>
-      <c r="NT43" s="15"/>
-      <c r="NU43" s="15"/>
-    </row>
-    <row r="44" spans="1:385" ht="39.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:385" ht="28">
       <c r="A44" s="17" t="s">
         <v>68</v>
       </c>
@@ -5196,51 +4566,49 @@
       <c r="C44" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" s="40">
+      <c r="D44" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="21">
         <v>42</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="K44" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" s="40" t="s">
+      <c r="I44" s="21"/>
+      <c r="J44" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="P44" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="25">
-        <v>6</v>
-      </c>
-      <c r="R44" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S44" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T44" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="U44" s="25" t="s">
-        <v>160</v>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="S44" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T44" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="U44" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
@@ -5607,7 +4975,7 @@
       <c r="NT44" s="15"/>
       <c r="NU44" s="15"/>
     </row>
-    <row r="45" spans="1:385" s="13" customFormat="1" ht="28">
+    <row r="45" spans="1:385" ht="70">
       <c r="A45" s="17" t="s">
         <v>68</v>
       </c>
@@ -5617,53 +4985,51 @@
       <c r="C45" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" s="40">
+      <c r="D45" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="21">
         <v>43</v>
       </c>
-      <c r="I45" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="K45" s="40" t="s">
+      <c r="I45" s="21"/>
+      <c r="J45" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" s="21" t="s">
         <v>69</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="P45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P45" s="21" t="s">
         <v>19</v>
       </c>
       <c r="Q45" s="23">
         <v>6</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="S45" s="23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="T45" s="23" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="U45" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
@@ -6030,7 +5396,7 @@
       <c r="NT45" s="15"/>
       <c r="NU45" s="15"/>
     </row>
-    <row r="46" spans="1:385" s="13" customFormat="1">
+    <row r="46" spans="1:385" ht="39.75" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>68</v>
       </c>
@@ -6046,14 +5412,14 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="29" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="H46" s="40">
         <v>44</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="31" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K46" s="40" t="s">
         <v>69</v>
@@ -6062,11 +5428,11 @@
         <v>32</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N46" s="31"/>
       <c r="O46" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P46" s="40" t="s">
         <v>19</v>
@@ -6081,9 +5447,9 @@
         <v>158</v>
       </c>
       <c r="T46" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="U46" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="U46" s="23" t="s">
         <v>160</v>
       </c>
       <c r="V46" s="15"/>
@@ -6451,7 +5817,7 @@
       <c r="NT46" s="15"/>
       <c r="NU46" s="15"/>
     </row>
-    <row r="47" spans="1:385" s="13" customFormat="1">
+    <row r="47" spans="1:385" s="13" customFormat="1" ht="28">
       <c r="A47" s="17" t="s">
         <v>68</v>
       </c>
@@ -6467,43 +5833,47 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="29" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H47" s="40">
         <v>45</v>
       </c>
-      <c r="I47" s="31"/>
+      <c r="I47" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="J47" s="31" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="L47" s="40" t="s">
-        <v>32</v>
+        <v>69</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="O47" s="31" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="P47" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="R47" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="S47" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="T47" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="U47" s="40" t="s">
-        <v>132</v>
+      <c r="Q47" s="23">
+        <v>6</v>
+      </c>
+      <c r="R47" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S47" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T47" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="U47" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
@@ -6870,7 +6240,7 @@
       <c r="NT47" s="15"/>
       <c r="NU47" s="15"/>
     </row>
-    <row r="48" spans="1:385" s="13" customFormat="1">
+    <row r="48" spans="1:385" s="13" customFormat="1" ht="28">
       <c r="A48" s="17" t="s">
         <v>68</v>
       </c>
@@ -6881,37 +6251,51 @@
         <v>92</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="35" t="s">
-        <v>91</v>
+        <v>140</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="29" t="s">
+        <v>273</v>
       </c>
       <c r="H48" s="40">
         <v>46</v>
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="31" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K48" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="31"/>
+      <c r="L48" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="O48" s="31" t="s">
+        <v>316</v>
+      </c>
       <c r="P48" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
+      <c r="Q48" s="25">
+        <v>6</v>
+      </c>
+      <c r="R48" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S48" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="U48" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
@@ -7277,7 +6661,7 @@
       <c r="NT48" s="15"/>
       <c r="NU48" s="15"/>
     </row>
-    <row r="49" spans="1:385">
+    <row r="49" spans="1:385" s="13" customFormat="1">
       <c r="A49" s="17" t="s">
         <v>68</v>
       </c>
@@ -7287,51 +6671,49 @@
       <c r="C49" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="35" t="s">
-        <v>90</v>
+      <c r="D49" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="29" t="s">
+        <v>282</v>
       </c>
       <c r="H49" s="40">
         <v>47</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" s="33" t="s">
+      <c r="I49" s="31"/>
+      <c r="J49" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="P49" s="47" t="s">
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="P49" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="40">
-        <v>6</v>
+      <c r="Q49" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="R49" s="40" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="S49" s="40" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="T49" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="U49" s="40" t="s">
-        <v>160</v>
+        <v>279</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -7698,7 +7080,7 @@
       <c r="NT49" s="15"/>
       <c r="NU49" s="15"/>
     </row>
-    <row r="50" spans="1:385" ht="56">
+    <row r="50" spans="1:385" s="13" customFormat="1">
       <c r="A50" s="17" t="s">
         <v>68</v>
       </c>
@@ -7708,50 +7090,38 @@
       <c r="C50" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="56" t="s">
-        <v>285</v>
+      <c r="D50" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="41"/>
+      <c r="G50" s="35" t="s">
+        <v>91</v>
+      </c>
       <c r="H50" s="40">
         <v>48</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="K50" s="42" t="s">
+      <c r="I50" s="31"/>
+      <c r="J50" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K50" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="P50" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="40">
-        <v>6</v>
-      </c>
-      <c r="R50" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S50" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="T50" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="U50" s="40" t="s">
-        <v>160</v>
-      </c>
+      <c r="L50" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="23"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
@@ -8117,28 +7487,62 @@
       <c r="NT50" s="15"/>
       <c r="NU50" s="15"/>
     </row>
-    <row r="51" spans="1:385" ht="32.25" customHeight="1">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="1:385" ht="28">
+      <c r="A51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>283</v>
+      </c>
       <c r="E51" s="24"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="G51" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="40">
+        <v>49</v>
+      </c>
       <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="J51" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
+      <c r="O51" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="P51" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="40">
+        <v>6</v>
+      </c>
+      <c r="R51" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S51" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="T51" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="U51" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
@@ -8504,28 +7908,60 @@
       <c r="NT51" s="15"/>
       <c r="NU51" s="15"/>
     </row>
-    <row r="52" spans="1:385">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="1:385" ht="56">
+      <c r="A52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>285</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="18"/>
       <c r="G52" s="41"/>
-      <c r="H52" s="18"/>
+      <c r="H52" s="40">
+        <v>50</v>
+      </c>
       <c r="I52" s="18"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
+      <c r="J52" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="O52" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="P52" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>6</v>
+      </c>
+      <c r="R52" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S52" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="T52" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="U52" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
@@ -8891,7 +8327,7 @@
       <c r="NT52" s="15"/>
       <c r="NU52" s="15"/>
     </row>
-    <row r="53" spans="1:385">
+    <row r="53" spans="1:385" ht="32.25" customHeight="1">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -8912,13 +8348,852 @@
       <c r="R53" s="40"/>
       <c r="S53" s="40"/>
       <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-    </row>
-    <row r="65" spans="22:22">
-      <c r="V65" s="24"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="15"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="15"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="15"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="15"/>
+      <c r="BL53" s="15"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="15"/>
+      <c r="BO53" s="15"/>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="15"/>
+      <c r="BT53" s="15"/>
+      <c r="BU53" s="15"/>
+      <c r="BV53" s="15"/>
+      <c r="BW53" s="15"/>
+      <c r="BX53" s="15"/>
+      <c r="BY53" s="15"/>
+      <c r="BZ53" s="15"/>
+      <c r="CA53" s="15"/>
+      <c r="CB53" s="15"/>
+      <c r="CC53" s="15"/>
+      <c r="CD53" s="15"/>
+      <c r="CE53" s="15"/>
+      <c r="CF53" s="15"/>
+      <c r="CG53" s="15"/>
+      <c r="CH53" s="15"/>
+      <c r="CI53" s="15"/>
+      <c r="CJ53" s="15"/>
+      <c r="CK53" s="15"/>
+      <c r="CL53" s="15"/>
+      <c r="CM53" s="15"/>
+      <c r="CN53" s="15"/>
+      <c r="CO53" s="15"/>
+      <c r="CP53" s="15"/>
+      <c r="CQ53" s="15"/>
+      <c r="CR53" s="15"/>
+      <c r="CS53" s="15"/>
+      <c r="CT53" s="15"/>
+      <c r="CU53" s="15"/>
+      <c r="CV53" s="15"/>
+      <c r="CW53" s="15"/>
+      <c r="CX53" s="15"/>
+      <c r="CY53" s="15"/>
+      <c r="CZ53" s="15"/>
+      <c r="DA53" s="15"/>
+      <c r="DB53" s="15"/>
+      <c r="DC53" s="15"/>
+      <c r="DD53" s="15"/>
+      <c r="DE53" s="15"/>
+      <c r="DF53" s="15"/>
+      <c r="DG53" s="15"/>
+      <c r="DH53" s="15"/>
+      <c r="DI53" s="15"/>
+      <c r="DJ53" s="15"/>
+      <c r="DK53" s="15"/>
+      <c r="DL53" s="15"/>
+      <c r="DM53" s="15"/>
+      <c r="DN53" s="15"/>
+      <c r="DO53" s="15"/>
+      <c r="DP53" s="15"/>
+      <c r="DQ53" s="15"/>
+      <c r="DR53" s="15"/>
+      <c r="DS53" s="15"/>
+      <c r="DT53" s="15"/>
+      <c r="DU53" s="15"/>
+      <c r="DV53" s="15"/>
+      <c r="DW53" s="15"/>
+      <c r="DX53" s="15"/>
+      <c r="DY53" s="15"/>
+      <c r="DZ53" s="15"/>
+      <c r="EA53" s="15"/>
+      <c r="EB53" s="15"/>
+      <c r="EC53" s="15"/>
+      <c r="ED53" s="15"/>
+      <c r="EE53" s="15"/>
+      <c r="EF53" s="15"/>
+      <c r="EG53" s="15"/>
+      <c r="EH53" s="15"/>
+      <c r="EI53" s="15"/>
+      <c r="EJ53" s="15"/>
+      <c r="EK53" s="15"/>
+      <c r="EL53" s="15"/>
+      <c r="EM53" s="15"/>
+      <c r="EN53" s="15"/>
+      <c r="EO53" s="15"/>
+      <c r="EP53" s="15"/>
+      <c r="EQ53" s="15"/>
+      <c r="ER53" s="15"/>
+      <c r="ES53" s="15"/>
+      <c r="ET53" s="15"/>
+      <c r="EU53" s="15"/>
+      <c r="EV53" s="15"/>
+      <c r="EW53" s="15"/>
+      <c r="EX53" s="15"/>
+      <c r="EY53" s="15"/>
+      <c r="EZ53" s="15"/>
+      <c r="FA53" s="15"/>
+      <c r="FB53" s="15"/>
+      <c r="FC53" s="15"/>
+      <c r="FD53" s="15"/>
+      <c r="FE53" s="15"/>
+      <c r="FF53" s="15"/>
+      <c r="FG53" s="15"/>
+      <c r="FH53" s="15"/>
+      <c r="FI53" s="15"/>
+      <c r="FJ53" s="15"/>
+      <c r="FK53" s="15"/>
+      <c r="FL53" s="15"/>
+      <c r="FM53" s="15"/>
+      <c r="FN53" s="15"/>
+      <c r="FO53" s="15"/>
+      <c r="FP53" s="15"/>
+      <c r="FQ53" s="15"/>
+      <c r="FR53" s="15"/>
+      <c r="FS53" s="15"/>
+      <c r="FT53" s="15"/>
+      <c r="FU53" s="15"/>
+      <c r="FV53" s="15"/>
+      <c r="FW53" s="15"/>
+      <c r="FX53" s="15"/>
+      <c r="FY53" s="15"/>
+      <c r="FZ53" s="15"/>
+      <c r="GA53" s="15"/>
+      <c r="GB53" s="15"/>
+      <c r="GC53" s="15"/>
+      <c r="GD53" s="15"/>
+      <c r="GE53" s="15"/>
+      <c r="GF53" s="15"/>
+      <c r="GG53" s="15"/>
+      <c r="GH53" s="15"/>
+      <c r="GI53" s="15"/>
+      <c r="GJ53" s="15"/>
+      <c r="GK53" s="15"/>
+      <c r="GL53" s="15"/>
+      <c r="GM53" s="15"/>
+      <c r="GN53" s="15"/>
+      <c r="GO53" s="15"/>
+      <c r="GP53" s="15"/>
+      <c r="GQ53" s="15"/>
+      <c r="GR53" s="15"/>
+      <c r="GS53" s="15"/>
+      <c r="GT53" s="15"/>
+      <c r="GU53" s="15"/>
+      <c r="GV53" s="15"/>
+      <c r="GW53" s="15"/>
+      <c r="GX53" s="15"/>
+      <c r="GY53" s="15"/>
+      <c r="GZ53" s="15"/>
+      <c r="HA53" s="15"/>
+      <c r="HB53" s="15"/>
+      <c r="HC53" s="15"/>
+      <c r="HD53" s="15"/>
+      <c r="HE53" s="15"/>
+      <c r="HF53" s="15"/>
+      <c r="HG53" s="15"/>
+      <c r="HH53" s="15"/>
+      <c r="HI53" s="15"/>
+      <c r="HJ53" s="15"/>
+      <c r="HK53" s="15"/>
+      <c r="HL53" s="15"/>
+      <c r="HM53" s="15"/>
+      <c r="HN53" s="15"/>
+      <c r="HO53" s="15"/>
+      <c r="HP53" s="15"/>
+      <c r="HQ53" s="15"/>
+      <c r="HR53" s="15"/>
+      <c r="HS53" s="15"/>
+      <c r="HT53" s="15"/>
+      <c r="HU53" s="15"/>
+      <c r="HV53" s="15"/>
+      <c r="HW53" s="15"/>
+      <c r="HX53" s="15"/>
+      <c r="HY53" s="15"/>
+      <c r="HZ53" s="15"/>
+      <c r="IA53" s="15"/>
+      <c r="IB53" s="15"/>
+      <c r="IC53" s="15"/>
+      <c r="ID53" s="15"/>
+      <c r="IE53" s="15"/>
+      <c r="IF53" s="15"/>
+      <c r="IG53" s="15"/>
+      <c r="IH53" s="15"/>
+      <c r="II53" s="15"/>
+      <c r="IJ53" s="15"/>
+      <c r="IK53" s="15"/>
+      <c r="IL53" s="15"/>
+      <c r="IM53" s="15"/>
+      <c r="IN53" s="15"/>
+      <c r="IO53" s="15"/>
+      <c r="IP53" s="15"/>
+      <c r="IQ53" s="15"/>
+      <c r="IR53" s="15"/>
+      <c r="IS53" s="15"/>
+      <c r="IT53" s="15"/>
+      <c r="IU53" s="15"/>
+      <c r="IV53" s="15"/>
+      <c r="IW53" s="15"/>
+      <c r="IX53" s="15"/>
+      <c r="IY53" s="15"/>
+      <c r="IZ53" s="15"/>
+      <c r="JA53" s="15"/>
+      <c r="JB53" s="15"/>
+      <c r="JC53" s="15"/>
+      <c r="JD53" s="15"/>
+      <c r="JE53" s="15"/>
+      <c r="JF53" s="15"/>
+      <c r="JG53" s="15"/>
+      <c r="JH53" s="15"/>
+      <c r="JI53" s="15"/>
+      <c r="JJ53" s="15"/>
+      <c r="JK53" s="15"/>
+      <c r="JL53" s="15"/>
+      <c r="JM53" s="15"/>
+      <c r="JN53" s="15"/>
+      <c r="JO53" s="15"/>
+      <c r="JP53" s="15"/>
+      <c r="JQ53" s="15"/>
+      <c r="JR53" s="15"/>
+      <c r="JS53" s="15"/>
+      <c r="JT53" s="15"/>
+      <c r="JU53" s="15"/>
+      <c r="JV53" s="15"/>
+      <c r="JW53" s="15"/>
+      <c r="JX53" s="15"/>
+      <c r="JY53" s="15"/>
+      <c r="JZ53" s="15"/>
+      <c r="KA53" s="15"/>
+      <c r="KB53" s="15"/>
+      <c r="KC53" s="15"/>
+      <c r="KD53" s="15"/>
+      <c r="KE53" s="15"/>
+      <c r="KF53" s="15"/>
+      <c r="KG53" s="15"/>
+      <c r="KH53" s="15"/>
+      <c r="KI53" s="15"/>
+      <c r="KJ53" s="15"/>
+      <c r="KK53" s="15"/>
+      <c r="KL53" s="15"/>
+      <c r="KM53" s="15"/>
+      <c r="KN53" s="15"/>
+      <c r="KO53" s="15"/>
+      <c r="KP53" s="15"/>
+      <c r="KQ53" s="15"/>
+      <c r="KR53" s="15"/>
+      <c r="KS53" s="15"/>
+      <c r="KT53" s="15"/>
+      <c r="KU53" s="15"/>
+      <c r="KV53" s="15"/>
+      <c r="KW53" s="15"/>
+      <c r="KX53" s="15"/>
+      <c r="KY53" s="15"/>
+      <c r="KZ53" s="15"/>
+      <c r="LA53" s="15"/>
+      <c r="LB53" s="15"/>
+      <c r="LC53" s="15"/>
+      <c r="LD53" s="15"/>
+      <c r="LE53" s="15"/>
+      <c r="LF53" s="15"/>
+      <c r="LG53" s="15"/>
+      <c r="LH53" s="15"/>
+      <c r="LI53" s="15"/>
+      <c r="LJ53" s="15"/>
+      <c r="LK53" s="15"/>
+      <c r="LL53" s="15"/>
+      <c r="LM53" s="15"/>
+      <c r="LN53" s="15"/>
+      <c r="LO53" s="15"/>
+      <c r="LP53" s="15"/>
+      <c r="LQ53" s="15"/>
+      <c r="LR53" s="15"/>
+      <c r="LS53" s="15"/>
+      <c r="LT53" s="15"/>
+      <c r="LU53" s="15"/>
+      <c r="LV53" s="15"/>
+      <c r="LW53" s="15"/>
+      <c r="LX53" s="15"/>
+      <c r="LY53" s="15"/>
+      <c r="LZ53" s="15"/>
+      <c r="MA53" s="15"/>
+      <c r="MB53" s="15"/>
+      <c r="MC53" s="15"/>
+      <c r="MD53" s="15"/>
+      <c r="ME53" s="15"/>
+      <c r="MF53" s="15"/>
+      <c r="MG53" s="15"/>
+      <c r="MH53" s="15"/>
+      <c r="MI53" s="15"/>
+      <c r="MJ53" s="15"/>
+      <c r="MK53" s="15"/>
+      <c r="ML53" s="15"/>
+      <c r="MM53" s="15"/>
+      <c r="MN53" s="15"/>
+      <c r="MO53" s="15"/>
+      <c r="MP53" s="15"/>
+      <c r="MQ53" s="15"/>
+      <c r="MR53" s="15"/>
+      <c r="MS53" s="15"/>
+      <c r="MT53" s="15"/>
+      <c r="MU53" s="15"/>
+      <c r="MV53" s="15"/>
+      <c r="MW53" s="15"/>
+      <c r="MX53" s="15"/>
+      <c r="MY53" s="15"/>
+      <c r="MZ53" s="15"/>
+      <c r="NA53" s="15"/>
+      <c r="NB53" s="15"/>
+      <c r="NC53" s="15"/>
+      <c r="ND53" s="15"/>
+      <c r="NE53" s="15"/>
+      <c r="NF53" s="15"/>
+      <c r="NG53" s="15"/>
+      <c r="NH53" s="15"/>
+      <c r="NI53" s="15"/>
+      <c r="NJ53" s="15"/>
+      <c r="NK53" s="15"/>
+      <c r="NL53" s="15"/>
+      <c r="NM53" s="15"/>
+      <c r="NN53" s="15"/>
+      <c r="NO53" s="15"/>
+      <c r="NP53" s="15"/>
+      <c r="NQ53" s="15"/>
+      <c r="NR53" s="15"/>
+      <c r="NS53" s="15"/>
+      <c r="NT53" s="15"/>
+      <c r="NU53" s="15"/>
+    </row>
+    <row r="54" spans="1:385">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="15"/>
+      <c r="BO54" s="15"/>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="15"/>
+      <c r="BS54" s="15"/>
+      <c r="BT54" s="15"/>
+      <c r="BU54" s="15"/>
+      <c r="BV54" s="15"/>
+      <c r="BW54" s="15"/>
+      <c r="BX54" s="15"/>
+      <c r="BY54" s="15"/>
+      <c r="BZ54" s="15"/>
+      <c r="CA54" s="15"/>
+      <c r="CB54" s="15"/>
+      <c r="CC54" s="15"/>
+      <c r="CD54" s="15"/>
+      <c r="CE54" s="15"/>
+      <c r="CF54" s="15"/>
+      <c r="CG54" s="15"/>
+      <c r="CH54" s="15"/>
+      <c r="CI54" s="15"/>
+      <c r="CJ54" s="15"/>
+      <c r="CK54" s="15"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
+      <c r="CO54" s="15"/>
+      <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15"/>
+      <c r="CV54" s="15"/>
+      <c r="CW54" s="15"/>
+      <c r="CX54" s="15"/>
+      <c r="CY54" s="15"/>
+      <c r="CZ54" s="15"/>
+      <c r="DA54" s="15"/>
+      <c r="DB54" s="15"/>
+      <c r="DC54" s="15"/>
+      <c r="DD54" s="15"/>
+      <c r="DE54" s="15"/>
+      <c r="DF54" s="15"/>
+      <c r="DG54" s="15"/>
+      <c r="DH54" s="15"/>
+      <c r="DI54" s="15"/>
+      <c r="DJ54" s="15"/>
+      <c r="DK54" s="15"/>
+      <c r="DL54" s="15"/>
+      <c r="DM54" s="15"/>
+      <c r="DN54" s="15"/>
+      <c r="DO54" s="15"/>
+      <c r="DP54" s="15"/>
+      <c r="DQ54" s="15"/>
+      <c r="DR54" s="15"/>
+      <c r="DS54" s="15"/>
+      <c r="DT54" s="15"/>
+      <c r="DU54" s="15"/>
+      <c r="DV54" s="15"/>
+      <c r="DW54" s="15"/>
+      <c r="DX54" s="15"/>
+      <c r="DY54" s="15"/>
+      <c r="DZ54" s="15"/>
+      <c r="EA54" s="15"/>
+      <c r="EB54" s="15"/>
+      <c r="EC54" s="15"/>
+      <c r="ED54" s="15"/>
+      <c r="EE54" s="15"/>
+      <c r="EF54" s="15"/>
+      <c r="EG54" s="15"/>
+      <c r="EH54" s="15"/>
+      <c r="EI54" s="15"/>
+      <c r="EJ54" s="15"/>
+      <c r="EK54" s="15"/>
+      <c r="EL54" s="15"/>
+      <c r="EM54" s="15"/>
+      <c r="EN54" s="15"/>
+      <c r="EO54" s="15"/>
+      <c r="EP54" s="15"/>
+      <c r="EQ54" s="15"/>
+      <c r="ER54" s="15"/>
+      <c r="ES54" s="15"/>
+      <c r="ET54" s="15"/>
+      <c r="EU54" s="15"/>
+      <c r="EV54" s="15"/>
+      <c r="EW54" s="15"/>
+      <c r="EX54" s="15"/>
+      <c r="EY54" s="15"/>
+      <c r="EZ54" s="15"/>
+      <c r="FA54" s="15"/>
+      <c r="FB54" s="15"/>
+      <c r="FC54" s="15"/>
+      <c r="FD54" s="15"/>
+      <c r="FE54" s="15"/>
+      <c r="FF54" s="15"/>
+      <c r="FG54" s="15"/>
+      <c r="FH54" s="15"/>
+      <c r="FI54" s="15"/>
+      <c r="FJ54" s="15"/>
+      <c r="FK54" s="15"/>
+      <c r="FL54" s="15"/>
+      <c r="FM54" s="15"/>
+      <c r="FN54" s="15"/>
+      <c r="FO54" s="15"/>
+      <c r="FP54" s="15"/>
+      <c r="FQ54" s="15"/>
+      <c r="FR54" s="15"/>
+      <c r="FS54" s="15"/>
+      <c r="FT54" s="15"/>
+      <c r="FU54" s="15"/>
+      <c r="FV54" s="15"/>
+      <c r="FW54" s="15"/>
+      <c r="FX54" s="15"/>
+      <c r="FY54" s="15"/>
+      <c r="FZ54" s="15"/>
+      <c r="GA54" s="15"/>
+      <c r="GB54" s="15"/>
+      <c r="GC54" s="15"/>
+      <c r="GD54" s="15"/>
+      <c r="GE54" s="15"/>
+      <c r="GF54" s="15"/>
+      <c r="GG54" s="15"/>
+      <c r="GH54" s="15"/>
+      <c r="GI54" s="15"/>
+      <c r="GJ54" s="15"/>
+      <c r="GK54" s="15"/>
+      <c r="GL54" s="15"/>
+      <c r="GM54" s="15"/>
+      <c r="GN54" s="15"/>
+      <c r="GO54" s="15"/>
+      <c r="GP54" s="15"/>
+      <c r="GQ54" s="15"/>
+      <c r="GR54" s="15"/>
+      <c r="GS54" s="15"/>
+      <c r="GT54" s="15"/>
+      <c r="GU54" s="15"/>
+      <c r="GV54" s="15"/>
+      <c r="GW54" s="15"/>
+      <c r="GX54" s="15"/>
+      <c r="GY54" s="15"/>
+      <c r="GZ54" s="15"/>
+      <c r="HA54" s="15"/>
+      <c r="HB54" s="15"/>
+      <c r="HC54" s="15"/>
+      <c r="HD54" s="15"/>
+      <c r="HE54" s="15"/>
+      <c r="HF54" s="15"/>
+      <c r="HG54" s="15"/>
+      <c r="HH54" s="15"/>
+      <c r="HI54" s="15"/>
+      <c r="HJ54" s="15"/>
+      <c r="HK54" s="15"/>
+      <c r="HL54" s="15"/>
+      <c r="HM54" s="15"/>
+      <c r="HN54" s="15"/>
+      <c r="HO54" s="15"/>
+      <c r="HP54" s="15"/>
+      <c r="HQ54" s="15"/>
+      <c r="HR54" s="15"/>
+      <c r="HS54" s="15"/>
+      <c r="HT54" s="15"/>
+      <c r="HU54" s="15"/>
+      <c r="HV54" s="15"/>
+      <c r="HW54" s="15"/>
+      <c r="HX54" s="15"/>
+      <c r="HY54" s="15"/>
+      <c r="HZ54" s="15"/>
+      <c r="IA54" s="15"/>
+      <c r="IB54" s="15"/>
+      <c r="IC54" s="15"/>
+      <c r="ID54" s="15"/>
+      <c r="IE54" s="15"/>
+      <c r="IF54" s="15"/>
+      <c r="IG54" s="15"/>
+      <c r="IH54" s="15"/>
+      <c r="II54" s="15"/>
+      <c r="IJ54" s="15"/>
+      <c r="IK54" s="15"/>
+      <c r="IL54" s="15"/>
+      <c r="IM54" s="15"/>
+      <c r="IN54" s="15"/>
+      <c r="IO54" s="15"/>
+      <c r="IP54" s="15"/>
+      <c r="IQ54" s="15"/>
+      <c r="IR54" s="15"/>
+      <c r="IS54" s="15"/>
+      <c r="IT54" s="15"/>
+      <c r="IU54" s="15"/>
+      <c r="IV54" s="15"/>
+      <c r="IW54" s="15"/>
+      <c r="IX54" s="15"/>
+      <c r="IY54" s="15"/>
+      <c r="IZ54" s="15"/>
+      <c r="JA54" s="15"/>
+      <c r="JB54" s="15"/>
+      <c r="JC54" s="15"/>
+      <c r="JD54" s="15"/>
+      <c r="JE54" s="15"/>
+      <c r="JF54" s="15"/>
+      <c r="JG54" s="15"/>
+      <c r="JH54" s="15"/>
+      <c r="JI54" s="15"/>
+      <c r="JJ54" s="15"/>
+      <c r="JK54" s="15"/>
+      <c r="JL54" s="15"/>
+      <c r="JM54" s="15"/>
+      <c r="JN54" s="15"/>
+      <c r="JO54" s="15"/>
+      <c r="JP54" s="15"/>
+      <c r="JQ54" s="15"/>
+      <c r="JR54" s="15"/>
+      <c r="JS54" s="15"/>
+      <c r="JT54" s="15"/>
+      <c r="JU54" s="15"/>
+      <c r="JV54" s="15"/>
+      <c r="JW54" s="15"/>
+      <c r="JX54" s="15"/>
+      <c r="JY54" s="15"/>
+      <c r="JZ54" s="15"/>
+      <c r="KA54" s="15"/>
+      <c r="KB54" s="15"/>
+      <c r="KC54" s="15"/>
+      <c r="KD54" s="15"/>
+      <c r="KE54" s="15"/>
+      <c r="KF54" s="15"/>
+      <c r="KG54" s="15"/>
+      <c r="KH54" s="15"/>
+      <c r="KI54" s="15"/>
+      <c r="KJ54" s="15"/>
+      <c r="KK54" s="15"/>
+      <c r="KL54" s="15"/>
+      <c r="KM54" s="15"/>
+      <c r="KN54" s="15"/>
+      <c r="KO54" s="15"/>
+      <c r="KP54" s="15"/>
+      <c r="KQ54" s="15"/>
+      <c r="KR54" s="15"/>
+      <c r="KS54" s="15"/>
+      <c r="KT54" s="15"/>
+      <c r="KU54" s="15"/>
+      <c r="KV54" s="15"/>
+      <c r="KW54" s="15"/>
+      <c r="KX54" s="15"/>
+      <c r="KY54" s="15"/>
+      <c r="KZ54" s="15"/>
+      <c r="LA54" s="15"/>
+      <c r="LB54" s="15"/>
+      <c r="LC54" s="15"/>
+      <c r="LD54" s="15"/>
+      <c r="LE54" s="15"/>
+      <c r="LF54" s="15"/>
+      <c r="LG54" s="15"/>
+      <c r="LH54" s="15"/>
+      <c r="LI54" s="15"/>
+      <c r="LJ54" s="15"/>
+      <c r="LK54" s="15"/>
+      <c r="LL54" s="15"/>
+      <c r="LM54" s="15"/>
+      <c r="LN54" s="15"/>
+      <c r="LO54" s="15"/>
+      <c r="LP54" s="15"/>
+      <c r="LQ54" s="15"/>
+      <c r="LR54" s="15"/>
+      <c r="LS54" s="15"/>
+      <c r="LT54" s="15"/>
+      <c r="LU54" s="15"/>
+      <c r="LV54" s="15"/>
+      <c r="LW54" s="15"/>
+      <c r="LX54" s="15"/>
+      <c r="LY54" s="15"/>
+      <c r="LZ54" s="15"/>
+      <c r="MA54" s="15"/>
+      <c r="MB54" s="15"/>
+      <c r="MC54" s="15"/>
+      <c r="MD54" s="15"/>
+      <c r="ME54" s="15"/>
+      <c r="MF54" s="15"/>
+      <c r="MG54" s="15"/>
+      <c r="MH54" s="15"/>
+      <c r="MI54" s="15"/>
+      <c r="MJ54" s="15"/>
+      <c r="MK54" s="15"/>
+      <c r="ML54" s="15"/>
+      <c r="MM54" s="15"/>
+      <c r="MN54" s="15"/>
+      <c r="MO54" s="15"/>
+      <c r="MP54" s="15"/>
+      <c r="MQ54" s="15"/>
+      <c r="MR54" s="15"/>
+      <c r="MS54" s="15"/>
+      <c r="MT54" s="15"/>
+      <c r="MU54" s="15"/>
+      <c r="MV54" s="15"/>
+      <c r="MW54" s="15"/>
+      <c r="MX54" s="15"/>
+      <c r="MY54" s="15"/>
+      <c r="MZ54" s="15"/>
+      <c r="NA54" s="15"/>
+      <c r="NB54" s="15"/>
+      <c r="NC54" s="15"/>
+      <c r="ND54" s="15"/>
+      <c r="NE54" s="15"/>
+      <c r="NF54" s="15"/>
+      <c r="NG54" s="15"/>
+      <c r="NH54" s="15"/>
+      <c r="NI54" s="15"/>
+      <c r="NJ54" s="15"/>
+      <c r="NK54" s="15"/>
+      <c r="NL54" s="15"/>
+      <c r="NM54" s="15"/>
+      <c r="NN54" s="15"/>
+      <c r="NO54" s="15"/>
+      <c r="NP54" s="15"/>
+      <c r="NQ54" s="15"/>
+      <c r="NR54" s="15"/>
+      <c r="NS54" s="15"/>
+      <c r="NT54" s="15"/>
+      <c r="NU54" s="15"/>
+    </row>
+    <row r="55" spans="1:385">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="23"/>
+    </row>
+    <row r="56" spans="1:385">
+      <c r="U56" s="23"/>
+    </row>
+    <row r="57" spans="1:385">
+      <c r="U57" s="23"/>
+    </row>
+    <row r="58" spans="1:385">
+      <c r="U58" s="23"/>
+    </row>
+    <row r="59" spans="1:385">
+      <c r="U59" s="23"/>
+    </row>
+    <row r="60" spans="1:385">
+      <c r="U60" s="23"/>
+    </row>
+    <row r="61" spans="1:385">
+      <c r="U61" s="23"/>
+    </row>
+    <row r="62" spans="1:385">
+      <c r="U62" s="23"/>
+    </row>
+    <row r="63" spans="1:385">
+      <c r="U63" s="23"/>
+    </row>
+    <row r="64" spans="1:385">
+      <c r="U64" s="23"/>
+    </row>
+    <row r="65" spans="21:22">
+      <c r="U65" s="23"/>
+    </row>
+    <row r="66" spans="21:22">
+      <c r="U66" s="23"/>
+    </row>
+    <row r="67" spans="21:22">
+      <c r="U67" s="23"/>
+      <c r="V67" s="24"/>
+    </row>
+    <row r="68" spans="21:22">
+      <c r="U68" s="23"/>
+    </row>
+    <row r="69" spans="21:22">
+      <c r="U69" s="23"/>
+    </row>
+    <row r="70" spans="21:22">
+      <c r="U70" s="23"/>
+    </row>
+    <row r="71" spans="21:22">
+      <c r="U71" s="23"/>
+    </row>
+    <row r="72" spans="21:22">
+      <c r="U72" s="23"/>
+    </row>
+    <row r="73" spans="21:22">
+      <c r="U73" s="23"/>
+    </row>
+    <row r="74" spans="21:22">
+      <c r="U74" s="23"/>
+    </row>
+    <row r="75" spans="21:22">
+      <c r="U75" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -8932,15 +9207,9 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -8948,37 +9217,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K16:K19 K3:K14 K21:K43 K44:K53</xm:sqref>
+          <xm:sqref>K16:K19 K3:K14 K21:K55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L16:L19 L3:L14 L21:L43 L44:L53</xm:sqref>
+          <xm:sqref>L16:L19 L3:L14 L21:L55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M6 M16:M19 M8:M14 M21:M43 M44:M53</xm:sqref>
+          <xm:sqref>M3:M6 M16:M19 M8:M14 M21:M55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P6 P8:P14 P16:P43 P44:P53</xm:sqref>
+          <xm:sqref>P3:P6 P8:P14 P16:P24 P26:P55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N6 N8:N14 N16:N43 N44:N53</xm:sqref>
+          <xm:sqref>N3:N6 N8:N14 N16:N55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A53</xm:sqref>
+          <xm:sqref>A3:A55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="340">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>(DBA:) Presentar fragmentos o poemas completos de tipo narrativo y descriptivo para que el estudiente los catalogue correctamente.</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por autor. Aprovado para digitalizar.</t>
   </si>
   <si>
     <r>
@@ -1823,15 +1820,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,6 +1864,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="193">
@@ -2338,7 +2335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2349,10 +2346,10 @@
   <dimension ref="A1:NU79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2387,94 +2384,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65" t="s">
+      <c r="N1" s="80"/>
+      <c r="O1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="65"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="28">
       <c r="A3" s="17" t="s">
@@ -2743,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>19</v>
@@ -2799,24 +2796,24 @@
         <v>81</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="P8" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="P8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="76">
         <v>6</v>
       </c>
-      <c r="R8" s="79" t="s">
+      <c r="R8" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="T8" s="79" t="s">
-        <v>339</v>
-      </c>
-      <c r="U8" s="79" t="s">
+      <c r="T8" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="U8" s="76" t="s">
         <v>160</v>
       </c>
       <c r="V8" s="25"/>
@@ -4226,14 +4223,14 @@
       <c r="G32" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="65">
         <v>30</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="65" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="21" t="s">
@@ -4244,7 +4241,7 @@
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>19</v>
@@ -4325,61 +4322,61 @@
       </c>
     </row>
     <row r="34" spans="1:385" ht="28">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="69" t="s">
+      <c r="F34" s="68"/>
+      <c r="G34" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="71">
+        <v>32</v>
+      </c>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="H34" s="74">
+      <c r="K34" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76" t="s">
+      <c r="M34" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="74"/>
+      <c r="O34" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="K34" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="77"/>
-      <c r="O34" s="76" t="s">
-        <v>325</v>
-      </c>
-      <c r="P34" s="75" t="s">
+      <c r="P34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="77">
+      <c r="Q34" s="74">
         <v>6</v>
       </c>
-      <c r="R34" s="77" t="s">
+      <c r="R34" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="77" t="s">
+      <c r="S34" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="T34" s="77" t="s">
-        <v>327</v>
-      </c>
-      <c r="U34" s="77" t="s">
+      <c r="T34" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="U34" s="74" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4443,61 +4440,61 @@
       </c>
     </row>
     <row r="36" spans="1:385" ht="28">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="69" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="72">
+        <v>34</v>
+      </c>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="74"/>
+      <c r="O36" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="P36" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="76">
+        <v>6</v>
+      </c>
+      <c r="R36" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="S36" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="T36" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="H36" s="75">
-        <v>34</v>
-      </c>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="K36" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="76" t="s">
-        <v>325</v>
-      </c>
-      <c r="P36" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="79">
-        <v>6</v>
-      </c>
-      <c r="R36" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="S36" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="U36" s="77" t="s">
+      <c r="U36" s="74" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4561,61 +4558,61 @@
       </c>
     </row>
     <row r="38" spans="1:385" ht="28">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="68"/>
+      <c r="G38" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="72">
+        <v>36</v>
+      </c>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="74"/>
+      <c r="O38" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="H38" s="75">
-        <v>36</v>
-      </c>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="N38" s="77"/>
-      <c r="O38" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="P38" s="75" t="s">
+      <c r="P38" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="79">
+      <c r="Q38" s="76">
         <v>6</v>
       </c>
-      <c r="R38" s="79" t="s">
+      <c r="R38" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="S38" s="79" t="s">
+      <c r="S38" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="T38" s="79" t="s">
+      <c r="T38" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="U38" s="79" t="s">
+      <c r="U38" s="76" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5532,7 +5529,9 @@
       <c r="L48" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="23"/>
+      <c r="M48" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="N48" s="23"/>
       <c r="O48" s="22" t="s">
         <v>306</v>
@@ -5954,9 +5953,7 @@
       <c r="M49" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="N49" s="31" t="s">
-        <v>321</v>
-      </c>
+      <c r="N49" s="31"/>
       <c r="O49" s="31" t="s">
         <v>307</v>
       </c>
@@ -6361,7 +6358,7 @@
       <c r="G50" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H50" s="68">
+      <c r="H50" s="65">
         <v>48</v>
       </c>
       <c r="I50" s="40" t="s">
@@ -6370,7 +6367,7 @@
       <c r="J50" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="K50" s="68" t="s">
+      <c r="K50" s="65" t="s">
         <v>69</v>
       </c>
       <c r="L50" s="21" t="s">
@@ -6381,7 +6378,7 @@
         <v>45</v>
       </c>
       <c r="O50" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P50" s="40" t="s">
         <v>19</v>
@@ -6767,59 +6764,59 @@
       <c r="NU50" s="15"/>
     </row>
     <row r="51" spans="1:385" s="13" customFormat="1" ht="28">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="80" t="s">
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="H51" s="71">
+        <v>49</v>
+      </c>
+      <c r="I51" s="78"/>
+      <c r="J51" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="H51" s="74">
-        <v>49</v>
-      </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82" t="s">
+      <c r="K51" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="78"/>
+      <c r="O51" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="K51" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="L51" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="N51" s="81"/>
-      <c r="O51" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="P51" s="75" t="s">
+      <c r="P51" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q51" s="79">
+      <c r="Q51" s="76">
         <v>6</v>
       </c>
-      <c r="R51" s="79" t="s">
+      <c r="R51" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="S51" s="79" t="s">
+      <c r="S51" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="T51" s="79" t="s">
-        <v>329</v>
-      </c>
-      <c r="U51" s="79" t="s">
+      <c r="T51" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="U51" s="76" t="s">
         <v>160</v>
       </c>
       <c r="V51" s="15"/>
@@ -10134,13 +10131,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -10154,9 +10144,15 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="337">
   <si>
     <t>Asignatura</t>
   </si>
@@ -422,12 +422,6 @@
   </si>
   <si>
     <t>Interactivo que muestra las distintas funciones del lenguaje</t>
-  </si>
-  <si>
-    <t>La adecuación del lenguaje al contexto: los niveles de la lengua</t>
-  </si>
-  <si>
-    <t>Interactivo que permite presentar y practicar los distintos niveles de la lengua</t>
   </si>
   <si>
     <t xml:space="preserve">Semántica: la homonimia </t>
@@ -885,9 +879,6 @@
     <t>Recurso M3B-01</t>
   </si>
   <si>
-    <t>Revisar fichas. Cambiar audios y textos al "español colombiano".</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revisar fichas. Interactivo repetido en 2 ESO. </t>
   </si>
   <si>
@@ -1258,7 +1249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,14 +1298,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1648,7 +1631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1679,7 +1662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1705,7 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,22 +1754,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,10 +1778,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,19 +1790,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,7 +1820,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,7 +2317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2343,13 +2325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NU79"/>
+  <dimension ref="A1:NU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2357,7 +2339,7 @@
     <col min="1" max="1" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.83203125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.83203125" style="12" customWidth="1"/>
@@ -2384,1189 +2366,1189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="S1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="U1" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="80"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-    </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="28">
-      <c r="A3" s="17" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+    </row>
+    <row r="3" spans="1:22" s="23" customFormat="1" ht="28">
+      <c r="A3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>6</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" s="23" customFormat="1" ht="28">
+      <c r="A4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>6</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22" s="23" customFormat="1" ht="28">
+      <c r="A5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>6</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22" s="23" customFormat="1" ht="42">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>6</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="1:22" s="23" customFormat="1" ht="70">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="20">
+        <v>5</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>6</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="V7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" s="23" customFormat="1" ht="84">
+      <c r="A8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="45">
+        <v>6</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="75">
+        <v>6</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="T8" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="U8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="V8" s="24"/>
+    </row>
+    <row r="9" spans="1:22" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="20">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" s="23" customFormat="1" ht="28">
+      <c r="A10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="20">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="23" customFormat="1" ht="28">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="20">
+        <v>9</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="23" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="62">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="N12" s="22"/>
+      <c r="O12" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q12" s="24">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="25" t="s">
+      <c r="R12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="U12" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T3" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="28">
-      <c r="A4" s="17" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="35.25" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="21">
-        <v>2</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="D13" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="20">
+        <v>11</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="35.25" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="20">
+        <v>12</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="37.5" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="49">
+        <v>13</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="37.5" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="20">
+        <v>14</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>6</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="37.5" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="62">
+        <v>15</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="M17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q17" s="22">
         <v>6</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S4" s="25" t="s">
+      <c r="R17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="U17" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V4" s="25"/>
-    </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="28">
-      <c r="A5" s="17" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="28.5" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="21">
-        <v>3</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="D18" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="20">
+        <v>16</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="28.5" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="20">
+        <v>17</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>6</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="36.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="22">
+        <v>18</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="21" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="25">
-        <v>6</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="42">
-      <c r="A6" s="17" t="s">
+      <c r="Q20" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="28">
+      <c r="A21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="21">
-        <v>4</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="D21" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="20">
+        <v>19</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="P6" s="21" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="25">
-        <v>6</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="70">
-      <c r="A7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="21">
-        <v>5</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>6</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="84">
-      <c r="A8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="46">
-        <v>6</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="P8" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="76">
-        <v>6</v>
-      </c>
-      <c r="R8" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T8" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" s="25"/>
-    </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="21">
-        <v>7</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="Q21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="25"/>
-    </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="28">
-      <c r="A10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="21">
-        <v>8</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="28">
-      <c r="A11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="21">
-        <v>9</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="U11" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="63">
-        <v>10</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>6</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="35.25" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="21">
-        <v>11</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="35.25" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="21">
-        <v>12</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="U14" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="50">
-        <v>13</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="R15" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="U15" s="52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="21">
-        <v>14</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>6</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="U16" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="37.5" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="63">
-        <v>15</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>6</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="U17" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="28.5" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="21">
-        <v>16</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="28.5" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="21">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>6</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="U19" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="36.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="23">
-        <v>18</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="T20" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="28">
-      <c r="A21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="21">
-        <v>19</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="U21" s="23" t="s">
+      <c r="U21" s="22" t="s">
         <v>112</v>
       </c>
       <c r="V21" s="15"/>
@@ -3578,318 +3560,318 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="1:28" ht="30" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="34" t="s">
+      <c r="D22" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="23">
-        <v>20</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="K22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R22" s="23" t="s">
+      <c r="Q22" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U22" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="U22" s="23" t="s">
-        <v>227</v>
       </c>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="30"/>
+      <c r="Z22" s="29"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="1:28" ht="30" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" s="61">
+      <c r="D23" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="60">
         <v>21</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="K23" s="61" t="s">
+      <c r="I23" s="22"/>
+      <c r="J23" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="P23" s="23" t="s">
+      <c r="N23" s="22"/>
+      <c r="O23" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="P23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="25" t="s">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="U23" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T23" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="U23" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="30"/>
+      <c r="Z23" s="29"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
     </row>
     <row r="24" spans="1:28" ht="30" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="D24" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="22">
         <v>22</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="I24" s="22"/>
+      <c r="J24" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="P24" s="23" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="P24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="T24" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="R24" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S24" s="23" t="s">
+      <c r="U24" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="T24" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="U24" s="23" t="s">
-        <v>232</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="30"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
     </row>
     <row r="25" spans="1:28" ht="30" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="61">
+      <c r="D25" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="60">
         <v>23</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="K25" s="61" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K25" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="P25" s="59" t="s">
+      <c r="N25" s="22"/>
+      <c r="O25" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="P25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="60">
+      <c r="Q25" s="59">
         <v>6</v>
       </c>
-      <c r="R25" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" s="60" t="s">
+      <c r="R25" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="T25" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="U25" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="U25" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="30"/>
+      <c r="Z25" s="29"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
     </row>
     <row r="26" spans="1:28" ht="32.25" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="H26" s="23">
+      <c r="D26" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="22">
         <v>24</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" s="23" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="P26" s="23" t="s">
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S26" s="23" t="s">
+      <c r="S26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="U26" s="23" t="s">
+      <c r="U26" s="22" t="s">
         <v>106</v>
       </c>
       <c r="V26" s="15"/>
@@ -3901,299 +3883,299 @@
       <c r="AB26" s="15"/>
     </row>
     <row r="27" spans="1:28" ht="42">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="37" t="s">
+      <c r="D27" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="61">
+        <v>25</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>6</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="56">
+      <c r="A28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="20">
+        <v>26</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>6</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="T28" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U28" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="42">
+      <c r="A29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="62">
+        <v>27</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="22"/>
+      <c r="O29" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>6</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="U29" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="28">
+      <c r="A30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="20">
+        <v>28</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="28">
+      <c r="A31" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="62">
-        <v>25</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="P27" s="23" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="20">
+        <v>29</v>
+      </c>
+      <c r="I31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="25">
-        <v>6</v>
-      </c>
-      <c r="R27" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T27" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="U27" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="56">
-      <c r="A28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="21">
-        <v>26</v>
-      </c>
-      <c r="I28" s="21" t="s">
+      <c r="J31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>6</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="U28" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="42">
-      <c r="A29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="63">
-        <v>27</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="P29" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>6</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="S29" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="T29" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="U29" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="28">
-      <c r="A30" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="21">
-        <v>28</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="23" t="s">
+      <c r="Q31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="R30" s="23" t="s">
+      <c r="R31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="T30" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="U30" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="28">
-      <c r="A31" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17" t="s">
+      <c r="T31" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="21">
-        <v>29</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="U31" s="23" t="s">
+      <c r="U31" s="22" t="s">
         <v>116</v>
       </c>
       <c r="V31" s="15"/>
@@ -4204,932 +4186,1295 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="28">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="35" t="s">
+      <c r="D32" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="64">
+        <v>30</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>6</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:385" ht="28">
+      <c r="A33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="20">
+        <v>31</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:385" ht="28">
+      <c r="A34" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="70">
+        <v>32</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="P34" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="73">
+        <v>6</v>
+      </c>
+      <c r="R34" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="S34" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="T34" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="U34" s="73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:385" ht="28">
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H35" s="20">
+        <v>33</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="T35" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="U35" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:385" ht="28">
+      <c r="A36" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36" s="71">
+        <v>34</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="73"/>
+      <c r="O36" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="P36" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="75">
+        <v>6</v>
+      </c>
+      <c r="R36" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="S36" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="T36" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="U36" s="73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:385" ht="28">
+      <c r="A37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="20">
+        <v>35</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T37" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="U37" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:385" ht="28">
+      <c r="A38" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="71">
+        <v>36</v>
+      </c>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="73"/>
+      <c r="O38" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="P38" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="75">
+        <v>6</v>
+      </c>
+      <c r="R38" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="S38" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="T38" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="U38" s="75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:385" ht="18" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" s="20">
+        <v>37</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="R39" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S39" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="T39" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="U39" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:385" ht="30" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="20">
+        <v>38</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="U40" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:385" ht="33.75" customHeight="1">
+      <c r="A41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="65">
-        <v>30</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="K32" s="65" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="20">
+        <v>39</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R41" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T41" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:385" ht="33.75" customHeight="1">
+      <c r="A42" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="62">
+        <v>40</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="P32" s="21" t="s">
+      <c r="M42" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>6</v>
+      </c>
+      <c r="R42" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S42" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T42" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:385" ht="28">
+      <c r="A43" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="39">
+        <v>41</v>
+      </c>
+      <c r="I43" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="J43" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S43" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="U43" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:385">
+      <c r="A44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="20">
+        <v>42</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S44" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="T44" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="U44" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:385" ht="28">
+      <c r="A45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="20">
+        <v>43</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S45" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="U45" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:385" ht="28">
+      <c r="A46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="20">
+        <v>44</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U46" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="15"/>
+      <c r="BV46" s="15"/>
+      <c r="BW46" s="15"/>
+      <c r="BX46" s="15"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="15"/>
+      <c r="CA46" s="15"/>
+      <c r="CB46" s="15"/>
+      <c r="CC46" s="15"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="15"/>
+      <c r="CF46" s="15"/>
+      <c r="CG46" s="15"/>
+      <c r="CH46" s="15"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="15"/>
+      <c r="CK46" s="15"/>
+      <c r="CL46" s="15"/>
+      <c r="CM46" s="15"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="15"/>
+      <c r="CP46" s="15"/>
+      <c r="CQ46" s="15"/>
+      <c r="CR46" s="15"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="15"/>
+      <c r="CU46" s="15"/>
+      <c r="CV46" s="15"/>
+      <c r="CW46" s="15"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="15"/>
+      <c r="CZ46" s="15"/>
+      <c r="DA46" s="15"/>
+      <c r="DB46" s="15"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="15"/>
+      <c r="DE46" s="15"/>
+      <c r="DF46" s="15"/>
+      <c r="DG46" s="15"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="15"/>
+      <c r="DJ46" s="15"/>
+      <c r="DK46" s="15"/>
+      <c r="DL46" s="15"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="15"/>
+      <c r="DO46" s="15"/>
+      <c r="DP46" s="15"/>
+      <c r="DQ46" s="15"/>
+      <c r="DR46" s="15"/>
+      <c r="DS46" s="15"/>
+      <c r="DT46" s="15"/>
+      <c r="DU46" s="15"/>
+      <c r="DV46" s="15"/>
+      <c r="DW46" s="15"/>
+      <c r="DX46" s="15"/>
+      <c r="DY46" s="15"/>
+      <c r="DZ46" s="15"/>
+      <c r="EA46" s="15"/>
+      <c r="EB46" s="15"/>
+      <c r="EC46" s="15"/>
+      <c r="ED46" s="15"/>
+      <c r="EE46" s="15"/>
+      <c r="EF46" s="15"/>
+      <c r="EG46" s="15"/>
+      <c r="EH46" s="15"/>
+      <c r="EI46" s="15"/>
+      <c r="EJ46" s="15"/>
+      <c r="EK46" s="15"/>
+      <c r="EL46" s="15"/>
+      <c r="EM46" s="15"/>
+      <c r="EN46" s="15"/>
+      <c r="EO46" s="15"/>
+      <c r="EP46" s="15"/>
+      <c r="EQ46" s="15"/>
+      <c r="ER46" s="15"/>
+      <c r="ES46" s="15"/>
+      <c r="ET46" s="15"/>
+      <c r="EU46" s="15"/>
+      <c r="EV46" s="15"/>
+      <c r="EW46" s="15"/>
+      <c r="EX46" s="15"/>
+      <c r="EY46" s="15"/>
+      <c r="EZ46" s="15"/>
+      <c r="FA46" s="15"/>
+      <c r="FB46" s="15"/>
+      <c r="FC46" s="15"/>
+      <c r="FD46" s="15"/>
+      <c r="FE46" s="15"/>
+      <c r="FF46" s="15"/>
+      <c r="FG46" s="15"/>
+      <c r="FH46" s="15"/>
+      <c r="FI46" s="15"/>
+      <c r="FJ46" s="15"/>
+      <c r="FK46" s="15"/>
+      <c r="FL46" s="15"/>
+      <c r="FM46" s="15"/>
+      <c r="FN46" s="15"/>
+      <c r="FO46" s="15"/>
+      <c r="FP46" s="15"/>
+      <c r="FQ46" s="15"/>
+      <c r="FR46" s="15"/>
+      <c r="FS46" s="15"/>
+      <c r="FT46" s="15"/>
+      <c r="FU46" s="15"/>
+      <c r="FV46" s="15"/>
+      <c r="FW46" s="15"/>
+      <c r="FX46" s="15"/>
+      <c r="FY46" s="15"/>
+      <c r="FZ46" s="15"/>
+      <c r="GA46" s="15"/>
+      <c r="GB46" s="15"/>
+      <c r="GC46" s="15"/>
+      <c r="GD46" s="15"/>
+      <c r="GE46" s="15"/>
+      <c r="GF46" s="15"/>
+      <c r="GG46" s="15"/>
+      <c r="GH46" s="15"/>
+      <c r="GI46" s="15"/>
+      <c r="GJ46" s="15"/>
+      <c r="GK46" s="15"/>
+      <c r="GL46" s="15"/>
+      <c r="GM46" s="15"/>
+      <c r="GN46" s="15"/>
+      <c r="GO46" s="15"/>
+      <c r="GP46" s="15"/>
+      <c r="GQ46" s="15"/>
+      <c r="GR46" s="15"/>
+      <c r="GS46" s="15"/>
+      <c r="GT46" s="15"/>
+      <c r="GU46" s="15"/>
+      <c r="GV46" s="15"/>
+      <c r="GW46" s="15"/>
+      <c r="GX46" s="15"/>
+      <c r="GY46" s="15"/>
+      <c r="GZ46" s="15"/>
+      <c r="HA46" s="15"/>
+      <c r="HB46" s="15"/>
+      <c r="HC46" s="15"/>
+      <c r="HD46" s="15"/>
+      <c r="HE46" s="15"/>
+      <c r="HF46" s="15"/>
+      <c r="HG46" s="15"/>
+      <c r="HH46" s="15"/>
+      <c r="HI46" s="15"/>
+      <c r="HJ46" s="15"/>
+      <c r="HK46" s="15"/>
+      <c r="HL46" s="15"/>
+      <c r="HM46" s="15"/>
+      <c r="HN46" s="15"/>
+      <c r="HO46" s="15"/>
+      <c r="HP46" s="15"/>
+      <c r="HQ46" s="15"/>
+      <c r="HR46" s="15"/>
+      <c r="HS46" s="15"/>
+      <c r="HT46" s="15"/>
+      <c r="HU46" s="15"/>
+      <c r="HV46" s="15"/>
+      <c r="HW46" s="15"/>
+      <c r="HX46" s="15"/>
+      <c r="HY46" s="15"/>
+      <c r="HZ46" s="15"/>
+      <c r="IA46" s="15"/>
+      <c r="IB46" s="15"/>
+      <c r="IC46" s="15"/>
+      <c r="ID46" s="15"/>
+      <c r="IE46" s="15"/>
+      <c r="IF46" s="15"/>
+      <c r="IG46" s="15"/>
+      <c r="IH46" s="15"/>
+      <c r="II46" s="15"/>
+      <c r="IJ46" s="15"/>
+      <c r="IK46" s="15"/>
+      <c r="IL46" s="15"/>
+      <c r="IM46" s="15"/>
+      <c r="IN46" s="15"/>
+      <c r="IO46" s="15"/>
+      <c r="IP46" s="15"/>
+      <c r="IQ46" s="15"/>
+      <c r="IR46" s="15"/>
+      <c r="IS46" s="15"/>
+      <c r="IT46" s="15"/>
+      <c r="IU46" s="15"/>
+      <c r="IV46" s="15"/>
+      <c r="IW46" s="15"/>
+      <c r="IX46" s="15"/>
+      <c r="IY46" s="15"/>
+      <c r="IZ46" s="15"/>
+      <c r="JA46" s="15"/>
+      <c r="JB46" s="15"/>
+      <c r="JC46" s="15"/>
+      <c r="JD46" s="15"/>
+      <c r="JE46" s="15"/>
+      <c r="JF46" s="15"/>
+      <c r="JG46" s="15"/>
+      <c r="JH46" s="15"/>
+      <c r="JI46" s="15"/>
+      <c r="JJ46" s="15"/>
+      <c r="JK46" s="15"/>
+      <c r="JL46" s="15"/>
+      <c r="JM46" s="15"/>
+      <c r="JN46" s="15"/>
+      <c r="JO46" s="15"/>
+      <c r="JP46" s="15"/>
+      <c r="JQ46" s="15"/>
+      <c r="JR46" s="15"/>
+      <c r="JS46" s="15"/>
+      <c r="JT46" s="15"/>
+      <c r="JU46" s="15"/>
+      <c r="JV46" s="15"/>
+      <c r="JW46" s="15"/>
+      <c r="JX46" s="15"/>
+      <c r="JY46" s="15"/>
+      <c r="JZ46" s="15"/>
+      <c r="KA46" s="15"/>
+      <c r="KB46" s="15"/>
+      <c r="KC46" s="15"/>
+      <c r="KD46" s="15"/>
+      <c r="KE46" s="15"/>
+      <c r="KF46" s="15"/>
+      <c r="KG46" s="15"/>
+      <c r="KH46" s="15"/>
+      <c r="KI46" s="15"/>
+      <c r="KJ46" s="15"/>
+      <c r="KK46" s="15"/>
+      <c r="KL46" s="15"/>
+      <c r="KM46" s="15"/>
+      <c r="KN46" s="15"/>
+      <c r="KO46" s="15"/>
+      <c r="KP46" s="15"/>
+      <c r="KQ46" s="15"/>
+      <c r="KR46" s="15"/>
+      <c r="KS46" s="15"/>
+      <c r="KT46" s="15"/>
+      <c r="KU46" s="15"/>
+      <c r="KV46" s="15"/>
+      <c r="KW46" s="15"/>
+      <c r="KX46" s="15"/>
+      <c r="KY46" s="15"/>
+      <c r="KZ46" s="15"/>
+      <c r="LA46" s="15"/>
+      <c r="LB46" s="15"/>
+      <c r="LC46" s="15"/>
+      <c r="LD46" s="15"/>
+      <c r="LE46" s="15"/>
+      <c r="LF46" s="15"/>
+      <c r="LG46" s="15"/>
+      <c r="LH46" s="15"/>
+      <c r="LI46" s="15"/>
+      <c r="LJ46" s="15"/>
+      <c r="LK46" s="15"/>
+      <c r="LL46" s="15"/>
+      <c r="LM46" s="15"/>
+      <c r="LN46" s="15"/>
+      <c r="LO46" s="15"/>
+      <c r="LP46" s="15"/>
+      <c r="LQ46" s="15"/>
+      <c r="LR46" s="15"/>
+      <c r="LS46" s="15"/>
+      <c r="LT46" s="15"/>
+      <c r="LU46" s="15"/>
+      <c r="LV46" s="15"/>
+      <c r="LW46" s="15"/>
+      <c r="LX46" s="15"/>
+      <c r="LY46" s="15"/>
+      <c r="LZ46" s="15"/>
+      <c r="MA46" s="15"/>
+      <c r="MB46" s="15"/>
+      <c r="MC46" s="15"/>
+      <c r="MD46" s="15"/>
+      <c r="ME46" s="15"/>
+      <c r="MF46" s="15"/>
+      <c r="MG46" s="15"/>
+      <c r="MH46" s="15"/>
+      <c r="MI46" s="15"/>
+      <c r="MJ46" s="15"/>
+      <c r="MK46" s="15"/>
+      <c r="ML46" s="15"/>
+      <c r="MM46" s="15"/>
+      <c r="MN46" s="15"/>
+      <c r="MO46" s="15"/>
+      <c r="MP46" s="15"/>
+      <c r="MQ46" s="15"/>
+      <c r="MR46" s="15"/>
+      <c r="MS46" s="15"/>
+      <c r="MT46" s="15"/>
+      <c r="MU46" s="15"/>
+      <c r="MV46" s="15"/>
+      <c r="MW46" s="15"/>
+      <c r="MX46" s="15"/>
+      <c r="MY46" s="15"/>
+      <c r="MZ46" s="15"/>
+      <c r="NA46" s="15"/>
+      <c r="NB46" s="15"/>
+      <c r="NC46" s="15"/>
+      <c r="ND46" s="15"/>
+      <c r="NE46" s="15"/>
+      <c r="NF46" s="15"/>
+      <c r="NG46" s="15"/>
+      <c r="NH46" s="15"/>
+      <c r="NI46" s="15"/>
+      <c r="NJ46" s="15"/>
+      <c r="NK46" s="15"/>
+      <c r="NL46" s="15"/>
+      <c r="NM46" s="15"/>
+      <c r="NN46" s="15"/>
+      <c r="NO46" s="15"/>
+      <c r="NP46" s="15"/>
+      <c r="NQ46" s="15"/>
+      <c r="NR46" s="15"/>
+      <c r="NS46" s="15"/>
+      <c r="NT46" s="15"/>
+      <c r="NU46" s="15"/>
+    </row>
+    <row r="47" spans="1:385" ht="70">
+      <c r="A47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="62">
+        <v>45</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K47" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="22">
         <v>6</v>
       </c>
-      <c r="R32" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S32" s="25" t="s">
+      <c r="R47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T47" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="U47" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T32" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="U32" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:385" ht="28">
-      <c r="A33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="21">
-        <v>31</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T33" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="U33" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:385" ht="28">
-      <c r="A34" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="H34" s="71">
-        <v>32</v>
-      </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="74"/>
-      <c r="O34" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="P34" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="74">
-        <v>6</v>
-      </c>
-      <c r="R34" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="S34" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="T34" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="U34" s="74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:385" ht="28">
-      <c r="A35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="H35" s="21">
-        <v>33</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="R35" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="T35" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="U35" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:385" ht="28">
-      <c r="A36" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="72">
-        <v>34</v>
-      </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="K36" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="74"/>
-      <c r="O36" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="P36" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="76">
-        <v>6</v>
-      </c>
-      <c r="R36" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="S36" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="U36" s="74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:385" ht="28">
-      <c r="A37" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="21">
-        <v>35</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S37" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T37" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="U37" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:385" ht="28">
-      <c r="A38" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="H38" s="72">
-        <v>36</v>
-      </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="N38" s="74"/>
-      <c r="O38" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="P38" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="76">
-        <v>6</v>
-      </c>
-      <c r="R38" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="S38" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="T38" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="U38" s="76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:385" ht="18" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="21">
-        <v>37</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="R39" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S39" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="T39" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="U39" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:385" ht="30" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="H40" s="21">
-        <v>38</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="P40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S40" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T40" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="U40" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:385" ht="33.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="21">
-        <v>39</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="P41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R41" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S41" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="T41" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="U41" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:385" ht="33.75" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="63">
-        <v>40</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="K42" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="P42" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="25">
-        <v>6</v>
-      </c>
-      <c r="R42" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S42" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T42" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="U42" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:385" ht="28">
-      <c r="A43" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="40">
-        <v>41</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="P43" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="R43" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S43" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="U43" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:385" ht="28">
-      <c r="A44" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="21">
-        <v>42</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="P44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R44" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S44" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="T44" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="U44" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="V44" s="16"/>
-    </row>
-    <row r="45" spans="1:385">
-      <c r="A45" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="21">
-        <v>43</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R45" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="T45" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="U45" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:385" ht="28">
-      <c r="A46" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="21">
-        <v>44</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="R46" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S46" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="U46" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:385" ht="28">
-      <c r="A47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H47" s="21">
-        <v>45</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="R47" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S47" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
@@ -5496,63 +5841,61 @@
       <c r="NT47" s="15"/>
       <c r="NU47" s="15"/>
     </row>
-    <row r="48" spans="1:385" ht="70">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:385" ht="39.75" customHeight="1">
+      <c r="A48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>145</v>
-      </c>
+      <c r="D48" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="H48" s="63">
+      <c r="G48" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="62">
         <v>46</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="K48" s="63" t="s">
+      <c r="I48" s="30"/>
+      <c r="J48" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K48" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N48" s="23"/>
-      <c r="O48" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="P48" s="21" t="s">
+      <c r="M48" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="P48" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="24">
         <v>6</v>
       </c>
-      <c r="R48" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="S48" s="23" t="s">
+      <c r="R48" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S48" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T48" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="U48" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T48" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="U48" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -5919,61 +6262,63 @@
       <c r="NT48" s="15"/>
       <c r="NU48" s="15"/>
     </row>
-    <row r="49" spans="1:385" ht="39.75" customHeight="1">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:385" s="13" customFormat="1" ht="28">
+      <c r="A49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="63">
+      <c r="D49" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H49" s="64">
         <v>47</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="K49" s="63" t="s">
+      <c r="I49" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="K49" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="P49" s="40" t="s">
+      <c r="L49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="30"/>
+      <c r="N49" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="P49" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="25">
+      <c r="Q49" s="22">
         <v>6</v>
       </c>
-      <c r="R49" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S49" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T49" s="26" t="s">
+      <c r="R49" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="U49" s="23" t="s">
-        <v>160</v>
+      <c r="S49" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="T49" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="U49" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -6341,62 +6686,60 @@
       <c r="NU49" s="15"/>
     </row>
     <row r="50" spans="1:385" s="13" customFormat="1" ht="28">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H50" s="65">
+      <c r="D50" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="H50" s="70">
         <v>48</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="77"/>
+      <c r="J50" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="77"/>
+      <c r="O50" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="P50" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="K50" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="L50" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" s="31"/>
-      <c r="N50" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="O50" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="P50" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="23">
+      <c r="Q50" s="75">
         <v>6</v>
       </c>
-      <c r="R50" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S50" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="T50" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="U50" s="23" t="s">
-        <v>169</v>
+      <c r="R50" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="S50" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="T50" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="U50" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -6764,60 +7107,60 @@
       <c r="NU50" s="15"/>
     </row>
     <row r="51" spans="1:385" s="13" customFormat="1" ht="28">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="H51" s="71">
+      <c r="D51" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="62">
         <v>49</v>
       </c>
-      <c r="I51" s="78"/>
-      <c r="J51" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="K51" s="71" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="K51" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L51" s="72" t="s">
+      <c r="L51" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N51" s="78"/>
-      <c r="O51" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="P51" s="72" t="s">
+      <c r="M51" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="P51" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q51" s="76">
+      <c r="Q51" s="24">
         <v>6</v>
       </c>
-      <c r="R51" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="S51" s="76" t="s">
+      <c r="R51" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S51" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="T51" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="U51" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T51" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="U51" s="76" t="s">
-        <v>160</v>
       </c>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -7184,61 +7527,59 @@
       <c r="NT51" s="15"/>
       <c r="NU51" s="15"/>
     </row>
-    <row r="52" spans="1:385" s="13" customFormat="1" ht="28">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:385" s="13" customFormat="1">
+      <c r="A52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="H52" s="63">
+      <c r="D52" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" s="39">
         <v>50</v>
       </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="K52" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="40" t="s">
+      <c r="I52" s="30"/>
+      <c r="J52" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="P52" s="40" t="s">
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="P52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="25">
-        <v>6</v>
-      </c>
-      <c r="R52" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S52" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T52" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="U52" s="23" t="s">
-        <v>160</v>
+      <c r="Q52" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T52" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="U52" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -7606,59 +7947,47 @@
       <c r="NU52" s="15"/>
     </row>
     <row r="53" spans="1:385" s="13" customFormat="1">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" s="40">
+      <c r="D53" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="39">
         <v>51</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="K53" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="L53" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="P53" s="40" t="s">
+      <c r="I53" s="30"/>
+      <c r="J53" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q53" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="R53" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="S53" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="T53" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="U53" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="22"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
@@ -8024,48 +8353,62 @@
       <c r="NT53" s="15"/>
       <c r="NU53" s="15"/>
     </row>
-    <row r="54" spans="1:385" s="13" customFormat="1">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:385" ht="28">
+      <c r="A54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="40">
+      <c r="D54" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="62">
         <v>52</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="K54" s="40" t="s">
+      <c r="I54" s="17"/>
+      <c r="J54" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="L54" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="40" t="s">
+      <c r="L54" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="P54" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="23"/>
+      <c r="Q54" s="39">
+        <v>6</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="U54" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
@@ -8431,61 +8774,59 @@
       <c r="NT54" s="15"/>
       <c r="NU54" s="15"/>
     </row>
-    <row r="55" spans="1:385" ht="28">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:385" ht="56">
+      <c r="A55" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="62">
+        <v>53</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="K55" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="P55" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="39">
+        <v>6</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="T55" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="63">
-        <v>53</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K55" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="P55" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q55" s="40">
-        <v>6</v>
-      </c>
-      <c r="R55" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S55" s="40" t="s">
+      <c r="U55" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="T55" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="U55" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
@@ -8852,60 +9193,28 @@
       <c r="NT55" s="15"/>
       <c r="NU55" s="15"/>
     </row>
-    <row r="56" spans="1:385" ht="56">
-      <c r="A56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="63">
-        <v>54</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="K56" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="P56" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="40">
-        <v>6</v>
-      </c>
-      <c r="R56" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S56" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="T56" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="U56" s="23" t="s">
-        <v>160</v>
-      </c>
+    <row r="56" spans="1:385" ht="32.25" customHeight="1">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="22"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
@@ -9271,28 +9580,28 @@
       <c r="NT56" s="15"/>
       <c r="NU56" s="15"/>
     </row>
-    <row r="57" spans="1:385" ht="32.25" customHeight="1">
+    <row r="57" spans="1:385">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="23"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="22"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
@@ -9662,475 +9971,95 @@
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="15"/>
-      <c r="AE58" s="15"/>
-      <c r="AF58" s="15"/>
-      <c r="AG58" s="15"/>
-      <c r="AH58" s="15"/>
-      <c r="AI58" s="15"/>
-      <c r="AJ58" s="15"/>
-      <c r="AK58" s="15"/>
-      <c r="AL58" s="15"/>
-      <c r="AM58" s="15"/>
-      <c r="AN58" s="15"/>
-      <c r="AO58" s="15"/>
-      <c r="AP58" s="15"/>
-      <c r="AQ58" s="15"/>
-      <c r="AR58" s="15"/>
-      <c r="AS58" s="15"/>
-      <c r="AT58" s="15"/>
-      <c r="AU58" s="15"/>
-      <c r="AV58" s="15"/>
-      <c r="AW58" s="15"/>
-      <c r="AX58" s="15"/>
-      <c r="AY58" s="15"/>
-      <c r="AZ58" s="15"/>
-      <c r="BA58" s="15"/>
-      <c r="BB58" s="15"/>
-      <c r="BC58" s="15"/>
-      <c r="BD58" s="15"/>
-      <c r="BE58" s="15"/>
-      <c r="BF58" s="15"/>
-      <c r="BG58" s="15"/>
-      <c r="BH58" s="15"/>
-      <c r="BI58" s="15"/>
-      <c r="BJ58" s="15"/>
-      <c r="BK58" s="15"/>
-      <c r="BL58" s="15"/>
-      <c r="BM58" s="15"/>
-      <c r="BN58" s="15"/>
-      <c r="BO58" s="15"/>
-      <c r="BP58" s="15"/>
-      <c r="BQ58" s="15"/>
-      <c r="BR58" s="15"/>
-      <c r="BS58" s="15"/>
-      <c r="BT58" s="15"/>
-      <c r="BU58" s="15"/>
-      <c r="BV58" s="15"/>
-      <c r="BW58" s="15"/>
-      <c r="BX58" s="15"/>
-      <c r="BY58" s="15"/>
-      <c r="BZ58" s="15"/>
-      <c r="CA58" s="15"/>
-      <c r="CB58" s="15"/>
-      <c r="CC58" s="15"/>
-      <c r="CD58" s="15"/>
-      <c r="CE58" s="15"/>
-      <c r="CF58" s="15"/>
-      <c r="CG58" s="15"/>
-      <c r="CH58" s="15"/>
-      <c r="CI58" s="15"/>
-      <c r="CJ58" s="15"/>
-      <c r="CK58" s="15"/>
-      <c r="CL58" s="15"/>
-      <c r="CM58" s="15"/>
-      <c r="CN58" s="15"/>
-      <c r="CO58" s="15"/>
-      <c r="CP58" s="15"/>
-      <c r="CQ58" s="15"/>
-      <c r="CR58" s="15"/>
-      <c r="CS58" s="15"/>
-      <c r="CT58" s="15"/>
-      <c r="CU58" s="15"/>
-      <c r="CV58" s="15"/>
-      <c r="CW58" s="15"/>
-      <c r="CX58" s="15"/>
-      <c r="CY58" s="15"/>
-      <c r="CZ58" s="15"/>
-      <c r="DA58" s="15"/>
-      <c r="DB58" s="15"/>
-      <c r="DC58" s="15"/>
-      <c r="DD58" s="15"/>
-      <c r="DE58" s="15"/>
-      <c r="DF58" s="15"/>
-      <c r="DG58" s="15"/>
-      <c r="DH58" s="15"/>
-      <c r="DI58" s="15"/>
-      <c r="DJ58" s="15"/>
-      <c r="DK58" s="15"/>
-      <c r="DL58" s="15"/>
-      <c r="DM58" s="15"/>
-      <c r="DN58" s="15"/>
-      <c r="DO58" s="15"/>
-      <c r="DP58" s="15"/>
-      <c r="DQ58" s="15"/>
-      <c r="DR58" s="15"/>
-      <c r="DS58" s="15"/>
-      <c r="DT58" s="15"/>
-      <c r="DU58" s="15"/>
-      <c r="DV58" s="15"/>
-      <c r="DW58" s="15"/>
-      <c r="DX58" s="15"/>
-      <c r="DY58" s="15"/>
-      <c r="DZ58" s="15"/>
-      <c r="EA58" s="15"/>
-      <c r="EB58" s="15"/>
-      <c r="EC58" s="15"/>
-      <c r="ED58" s="15"/>
-      <c r="EE58" s="15"/>
-      <c r="EF58" s="15"/>
-      <c r="EG58" s="15"/>
-      <c r="EH58" s="15"/>
-      <c r="EI58" s="15"/>
-      <c r="EJ58" s="15"/>
-      <c r="EK58" s="15"/>
-      <c r="EL58" s="15"/>
-      <c r="EM58" s="15"/>
-      <c r="EN58" s="15"/>
-      <c r="EO58" s="15"/>
-      <c r="EP58" s="15"/>
-      <c r="EQ58" s="15"/>
-      <c r="ER58" s="15"/>
-      <c r="ES58" s="15"/>
-      <c r="ET58" s="15"/>
-      <c r="EU58" s="15"/>
-      <c r="EV58" s="15"/>
-      <c r="EW58" s="15"/>
-      <c r="EX58" s="15"/>
-      <c r="EY58" s="15"/>
-      <c r="EZ58" s="15"/>
-      <c r="FA58" s="15"/>
-      <c r="FB58" s="15"/>
-      <c r="FC58" s="15"/>
-      <c r="FD58" s="15"/>
-      <c r="FE58" s="15"/>
-      <c r="FF58" s="15"/>
-      <c r="FG58" s="15"/>
-      <c r="FH58" s="15"/>
-      <c r="FI58" s="15"/>
-      <c r="FJ58" s="15"/>
-      <c r="FK58" s="15"/>
-      <c r="FL58" s="15"/>
-      <c r="FM58" s="15"/>
-      <c r="FN58" s="15"/>
-      <c r="FO58" s="15"/>
-      <c r="FP58" s="15"/>
-      <c r="FQ58" s="15"/>
-      <c r="FR58" s="15"/>
-      <c r="FS58" s="15"/>
-      <c r="FT58" s="15"/>
-      <c r="FU58" s="15"/>
-      <c r="FV58" s="15"/>
-      <c r="FW58" s="15"/>
-      <c r="FX58" s="15"/>
-      <c r="FY58" s="15"/>
-      <c r="FZ58" s="15"/>
-      <c r="GA58" s="15"/>
-      <c r="GB58" s="15"/>
-      <c r="GC58" s="15"/>
-      <c r="GD58" s="15"/>
-      <c r="GE58" s="15"/>
-      <c r="GF58" s="15"/>
-      <c r="GG58" s="15"/>
-      <c r="GH58" s="15"/>
-      <c r="GI58" s="15"/>
-      <c r="GJ58" s="15"/>
-      <c r="GK58" s="15"/>
-      <c r="GL58" s="15"/>
-      <c r="GM58" s="15"/>
-      <c r="GN58" s="15"/>
-      <c r="GO58" s="15"/>
-      <c r="GP58" s="15"/>
-      <c r="GQ58" s="15"/>
-      <c r="GR58" s="15"/>
-      <c r="GS58" s="15"/>
-      <c r="GT58" s="15"/>
-      <c r="GU58" s="15"/>
-      <c r="GV58" s="15"/>
-      <c r="GW58" s="15"/>
-      <c r="GX58" s="15"/>
-      <c r="GY58" s="15"/>
-      <c r="GZ58" s="15"/>
-      <c r="HA58" s="15"/>
-      <c r="HB58" s="15"/>
-      <c r="HC58" s="15"/>
-      <c r="HD58" s="15"/>
-      <c r="HE58" s="15"/>
-      <c r="HF58" s="15"/>
-      <c r="HG58" s="15"/>
-      <c r="HH58" s="15"/>
-      <c r="HI58" s="15"/>
-      <c r="HJ58" s="15"/>
-      <c r="HK58" s="15"/>
-      <c r="HL58" s="15"/>
-      <c r="HM58" s="15"/>
-      <c r="HN58" s="15"/>
-      <c r="HO58" s="15"/>
-      <c r="HP58" s="15"/>
-      <c r="HQ58" s="15"/>
-      <c r="HR58" s="15"/>
-      <c r="HS58" s="15"/>
-      <c r="HT58" s="15"/>
-      <c r="HU58" s="15"/>
-      <c r="HV58" s="15"/>
-      <c r="HW58" s="15"/>
-      <c r="HX58" s="15"/>
-      <c r="HY58" s="15"/>
-      <c r="HZ58" s="15"/>
-      <c r="IA58" s="15"/>
-      <c r="IB58" s="15"/>
-      <c r="IC58" s="15"/>
-      <c r="ID58" s="15"/>
-      <c r="IE58" s="15"/>
-      <c r="IF58" s="15"/>
-      <c r="IG58" s="15"/>
-      <c r="IH58" s="15"/>
-      <c r="II58" s="15"/>
-      <c r="IJ58" s="15"/>
-      <c r="IK58" s="15"/>
-      <c r="IL58" s="15"/>
-      <c r="IM58" s="15"/>
-      <c r="IN58" s="15"/>
-      <c r="IO58" s="15"/>
-      <c r="IP58" s="15"/>
-      <c r="IQ58" s="15"/>
-      <c r="IR58" s="15"/>
-      <c r="IS58" s="15"/>
-      <c r="IT58" s="15"/>
-      <c r="IU58" s="15"/>
-      <c r="IV58" s="15"/>
-      <c r="IW58" s="15"/>
-      <c r="IX58" s="15"/>
-      <c r="IY58" s="15"/>
-      <c r="IZ58" s="15"/>
-      <c r="JA58" s="15"/>
-      <c r="JB58" s="15"/>
-      <c r="JC58" s="15"/>
-      <c r="JD58" s="15"/>
-      <c r="JE58" s="15"/>
-      <c r="JF58" s="15"/>
-      <c r="JG58" s="15"/>
-      <c r="JH58" s="15"/>
-      <c r="JI58" s="15"/>
-      <c r="JJ58" s="15"/>
-      <c r="JK58" s="15"/>
-      <c r="JL58" s="15"/>
-      <c r="JM58" s="15"/>
-      <c r="JN58" s="15"/>
-      <c r="JO58" s="15"/>
-      <c r="JP58" s="15"/>
-      <c r="JQ58" s="15"/>
-      <c r="JR58" s="15"/>
-      <c r="JS58" s="15"/>
-      <c r="JT58" s="15"/>
-      <c r="JU58" s="15"/>
-      <c r="JV58" s="15"/>
-      <c r="JW58" s="15"/>
-      <c r="JX58" s="15"/>
-      <c r="JY58" s="15"/>
-      <c r="JZ58" s="15"/>
-      <c r="KA58" s="15"/>
-      <c r="KB58" s="15"/>
-      <c r="KC58" s="15"/>
-      <c r="KD58" s="15"/>
-      <c r="KE58" s="15"/>
-      <c r="KF58" s="15"/>
-      <c r="KG58" s="15"/>
-      <c r="KH58" s="15"/>
-      <c r="KI58" s="15"/>
-      <c r="KJ58" s="15"/>
-      <c r="KK58" s="15"/>
-      <c r="KL58" s="15"/>
-      <c r="KM58" s="15"/>
-      <c r="KN58" s="15"/>
-      <c r="KO58" s="15"/>
-      <c r="KP58" s="15"/>
-      <c r="KQ58" s="15"/>
-      <c r="KR58" s="15"/>
-      <c r="KS58" s="15"/>
-      <c r="KT58" s="15"/>
-      <c r="KU58" s="15"/>
-      <c r="KV58" s="15"/>
-      <c r="KW58" s="15"/>
-      <c r="KX58" s="15"/>
-      <c r="KY58" s="15"/>
-      <c r="KZ58" s="15"/>
-      <c r="LA58" s="15"/>
-      <c r="LB58" s="15"/>
-      <c r="LC58" s="15"/>
-      <c r="LD58" s="15"/>
-      <c r="LE58" s="15"/>
-      <c r="LF58" s="15"/>
-      <c r="LG58" s="15"/>
-      <c r="LH58" s="15"/>
-      <c r="LI58" s="15"/>
-      <c r="LJ58" s="15"/>
-      <c r="LK58" s="15"/>
-      <c r="LL58" s="15"/>
-      <c r="LM58" s="15"/>
-      <c r="LN58" s="15"/>
-      <c r="LO58" s="15"/>
-      <c r="LP58" s="15"/>
-      <c r="LQ58" s="15"/>
-      <c r="LR58" s="15"/>
-      <c r="LS58" s="15"/>
-      <c r="LT58" s="15"/>
-      <c r="LU58" s="15"/>
-      <c r="LV58" s="15"/>
-      <c r="LW58" s="15"/>
-      <c r="LX58" s="15"/>
-      <c r="LY58" s="15"/>
-      <c r="LZ58" s="15"/>
-      <c r="MA58" s="15"/>
-      <c r="MB58" s="15"/>
-      <c r="MC58" s="15"/>
-      <c r="MD58" s="15"/>
-      <c r="ME58" s="15"/>
-      <c r="MF58" s="15"/>
-      <c r="MG58" s="15"/>
-      <c r="MH58" s="15"/>
-      <c r="MI58" s="15"/>
-      <c r="MJ58" s="15"/>
-      <c r="MK58" s="15"/>
-      <c r="ML58" s="15"/>
-      <c r="MM58" s="15"/>
-      <c r="MN58" s="15"/>
-      <c r="MO58" s="15"/>
-      <c r="MP58" s="15"/>
-      <c r="MQ58" s="15"/>
-      <c r="MR58" s="15"/>
-      <c r="MS58" s="15"/>
-      <c r="MT58" s="15"/>
-      <c r="MU58" s="15"/>
-      <c r="MV58" s="15"/>
-      <c r="MW58" s="15"/>
-      <c r="MX58" s="15"/>
-      <c r="MY58" s="15"/>
-      <c r="MZ58" s="15"/>
-      <c r="NA58" s="15"/>
-      <c r="NB58" s="15"/>
-      <c r="NC58" s="15"/>
-      <c r="ND58" s="15"/>
-      <c r="NE58" s="15"/>
-      <c r="NF58" s="15"/>
-      <c r="NG58" s="15"/>
-      <c r="NH58" s="15"/>
-      <c r="NI58" s="15"/>
-      <c r="NJ58" s="15"/>
-      <c r="NK58" s="15"/>
-      <c r="NL58" s="15"/>
-      <c r="NM58" s="15"/>
-      <c r="NN58" s="15"/>
-      <c r="NO58" s="15"/>
-      <c r="NP58" s="15"/>
-      <c r="NQ58" s="15"/>
-      <c r="NR58" s="15"/>
-      <c r="NS58" s="15"/>
-      <c r="NT58" s="15"/>
-      <c r="NU58" s="15"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="22"/>
     </row>
     <row r="59" spans="1:385">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="23"/>
+      <c r="U59" s="22"/>
     </row>
     <row r="60" spans="1:385">
-      <c r="U60" s="23"/>
+      <c r="U60" s="22"/>
     </row>
     <row r="61" spans="1:385">
-      <c r="U61" s="23"/>
+      <c r="U61" s="22"/>
     </row>
     <row r="62" spans="1:385">
-      <c r="U62" s="23"/>
+      <c r="U62" s="22"/>
     </row>
     <row r="63" spans="1:385">
-      <c r="U63" s="23"/>
+      <c r="U63" s="22"/>
     </row>
     <row r="64" spans="1:385">
-      <c r="U64" s="23"/>
+      <c r="U64" s="22"/>
     </row>
     <row r="65" spans="21:22">
-      <c r="U65" s="23"/>
+      <c r="U65" s="22"/>
     </row>
     <row r="66" spans="21:22">
-      <c r="U66" s="23"/>
+      <c r="U66" s="22"/>
     </row>
     <row r="67" spans="21:22">
-      <c r="U67" s="23"/>
+      <c r="U67" s="22"/>
     </row>
     <row r="68" spans="21:22">
-      <c r="U68" s="23"/>
+      <c r="U68" s="22"/>
     </row>
     <row r="69" spans="21:22">
-      <c r="U69" s="23"/>
+      <c r="U69" s="22"/>
     </row>
     <row r="70" spans="21:22">
-      <c r="U70" s="23"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="23"/>
     </row>
     <row r="71" spans="21:22">
-      <c r="U71" s="23"/>
-      <c r="V71" s="24"/>
+      <c r="U71" s="22"/>
     </row>
     <row r="72" spans="21:22">
-      <c r="U72" s="23"/>
+      <c r="U72" s="22"/>
     </row>
     <row r="73" spans="21:22">
-      <c r="U73" s="23"/>
+      <c r="U73" s="22"/>
     </row>
     <row r="74" spans="21:22">
-      <c r="U74" s="23"/>
+      <c r="U74" s="22"/>
     </row>
     <row r="75" spans="21:22">
-      <c r="U75" s="23"/>
+      <c r="U75" s="22"/>
     </row>
     <row r="76" spans="21:22">
-      <c r="U76" s="23"/>
+      <c r="U76" s="22"/>
     </row>
     <row r="77" spans="21:22">
-      <c r="U77" s="23"/>
+      <c r="U77" s="22"/>
     </row>
     <row r="78" spans="21:22">
-      <c r="U78" s="23"/>
-    </row>
-    <row r="79" spans="21:22">
-      <c r="U79" s="23"/>
+      <c r="U78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -10144,13 +10073,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10160,37 +10082,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K16:K19 K21:K59 K3:K14</xm:sqref>
+          <xm:sqref>K16:K19 K3:K14 K21:K58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L16:L19 L21:L59 L3:L14</xm:sqref>
+          <xm:sqref>L16:L19 L3:L14 L21:L58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M6 M16:M19 M59 M21:M57 M9:M14</xm:sqref>
+          <xm:sqref>M3:M6 M16:M19 M58 M9:M14 M21:M56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P6 P8:P14 P16:P24 P26:P59</xm:sqref>
+          <xm:sqref>P3:P6 P8:P14 P16:P24 P26:P58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N6 N59 N16:N57 N9:N14</xm:sqref>
+          <xm:sqref>N3:N6 N58 N9:N14 N16:N56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A59</xm:sqref>
+          <xm:sqref>A3:A58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="338">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1243,6 +1243,9 @@
       </rPr>
       <t xml:space="preserve"> Presentar imágenes que puedan asociarse a los diferentes medios de comunicación. Por ejemplo: una imagen de un programa televisivo para tv, una de un locutor en un estudio para la radio, una página web para Internet, etc. Para los textos escritos de la prensa, pueden escribirse en un Word y lugo pasarse a formato JPG. Luego el estudiante deberá señalar entre las opciones: radio, tv, prensa, Internet.</t>
     </r>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2328,10 +2331,10 @@
   <dimension ref="A1:NU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4926,7 +4929,7 @@
         <v>191</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="22" t="s">
         <v>98</v>
@@ -8789,7 +8792,9 @@
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="40"/>
+      <c r="G55" s="40" t="s">
+        <v>337</v>
+      </c>
       <c r="H55" s="62">
         <v>53</v>
       </c>
@@ -10053,13 +10058,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -10073,6 +10071,13 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/ESCALETA_LE_07_02_CO.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado07\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2059,6 +2064,14 @@
       <color rgb="FFFF9933"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2317,7 +2330,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2328,44 +2341,44 @@
   <dimension ref="A1:NU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.83203125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="9"/>
-    <col min="10" max="10" width="60.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.85546875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" style="9"/>
+    <col min="10" max="10" width="60.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="10" customWidth="1"/>
     <col min="13" max="13" width="14" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="9" customWidth="1"/>
     <col min="15" max="15" width="60" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="9" customWidth="1"/>
     <col min="20" max="20" width="34" style="9" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="6"/>
+    <col min="21" max="21" width="9.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="6"/>
     <col min="23" max="23" width="9" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="6"/>
-    <col min="25" max="25" width="24.83203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="27.5" style="6" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="6"/>
+    <col min="24" max="24" width="10.85546875" style="6"/>
+    <col min="25" max="25" width="24.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="29.25" customHeight="1">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -2455,7 +2468,7 @@
       <c r="T2" s="79"/>
       <c r="U2" s="79"/>
     </row>
-    <row r="3" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="3" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>68</v>
       </c>
@@ -2513,7 +2526,7 @@
       </c>
       <c r="V3" s="24"/>
     </row>
-    <row r="4" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="4" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
@@ -2571,7 +2584,7 @@
       </c>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="5" spans="1:22" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +2642,7 @@
       </c>
       <c r="V5" s="24"/>
     </row>
-    <row r="6" spans="1:22" s="23" customFormat="1" ht="42">
+    <row r="6" spans="1:22" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>68</v>
       </c>
@@ -2687,7 +2700,7 @@
       </c>
       <c r="V6" s="24"/>
     </row>
-    <row r="7" spans="1:22" s="23" customFormat="1" ht="70">
+    <row r="7" spans="1:22" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2744,7 +2757,7 @@
       </c>
       <c r="V7" s="24"/>
     </row>
-    <row r="8" spans="1:22" s="23" customFormat="1" ht="84">
+    <row r="8" spans="1:22" s="23" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
@@ -2800,7 +2813,7 @@
       </c>
       <c r="V8" s="24"/>
     </row>
-    <row r="9" spans="1:22" s="23" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:22" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
@@ -2858,7 +2871,7 @@
       </c>
       <c r="V9" s="24"/>
     </row>
-    <row r="10" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="10" spans="1:22" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>68</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="23" customFormat="1" ht="28">
+    <row r="11" spans="1:22" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="23" customFormat="1" ht="61.5" customHeight="1">
+    <row r="12" spans="1:22" s="23" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
@@ -3027,7 +3040,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="35.25" customHeight="1">
+    <row r="13" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="35.25" customHeight="1">
+    <row r="14" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>68</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="37.5" customHeight="1">
+    <row r="15" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>68</v>
       </c>
@@ -3202,7 +3215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="37.5" customHeight="1">
+    <row r="16" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>68</v>
       </c>
@@ -3263,7 +3276,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="37.5" customHeight="1">
+    <row r="17" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>68</v>
       </c>
@@ -3322,7 +3335,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="28.5" customHeight="1">
+    <row r="18" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>68</v>
       </c>
@@ -3379,7 +3392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="28.5" customHeight="1">
+    <row r="19" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>68</v>
       </c>
@@ -3440,7 +3453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="36.75" customHeight="1">
+    <row r="20" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>68</v>
       </c>
@@ -3495,7 +3508,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="28">
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>68</v>
       </c>
@@ -3559,7 +3572,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:28" ht="30" customHeight="1">
+    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3637,7 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
@@ -3688,7 +3701,7 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>68</v>
       </c>
@@ -3752,7 +3765,7 @@
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3831,7 @@
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
     </row>
-    <row r="26" spans="1:28" ht="32.25" customHeight="1">
+    <row r="26" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>68</v>
       </c>
@@ -3882,7 +3895,7 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" ht="42">
+    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>68</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="56">
+    <row r="28" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>68</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="42">
+    <row r="29" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
@@ -4061,7 +4074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="28">
+    <row r="30" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>68</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="28">
+    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>68</v>
       </c>
@@ -4185,7 +4198,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="28">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>68</v>
       </c>
@@ -4244,7 +4257,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:385" ht="28">
+    <row r="33" spans="1:385" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>68</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:385" ht="28">
+    <row r="34" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>68</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:385" ht="28">
+    <row r="35" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>68</v>
       </c>
@@ -4421,7 +4434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:385" ht="28">
+    <row r="36" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>68</v>
       </c>
@@ -4480,7 +4493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:385" ht="28">
+    <row r="37" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>68</v>
       </c>
@@ -4539,7 +4552,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:385" ht="28">
+    <row r="38" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>68</v>
       </c>
@@ -4598,7 +4611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:385" ht="18" customHeight="1">
+    <row r="39" spans="1:385" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>68</v>
       </c>
@@ -4653,7 +4666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:385" ht="30" customHeight="1">
+    <row r="40" spans="1:385" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>68</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:385" ht="33.75" customHeight="1">
+    <row r="41" spans="1:385" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>68</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:385" ht="33.75" customHeight="1">
+    <row r="42" spans="1:385" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>68</v>
       </c>
@@ -4826,7 +4839,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:385" ht="28">
+    <row r="43" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
@@ -4885,7 +4898,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:385">
+    <row r="44" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:385" ht="28">
+    <row r="45" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>68</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:385" ht="28">
+    <row r="46" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5418,7 +5431,7 @@
       <c r="NT46" s="15"/>
       <c r="NU46" s="15"/>
     </row>
-    <row r="47" spans="1:385" ht="70">
+    <row r="47" spans="1:385" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>68</v>
       </c>
@@ -5841,7 +5854,7 @@
       <c r="NT47" s="15"/>
       <c r="NU47" s="15"/>
     </row>
-    <row r="48" spans="1:385" ht="39.75" customHeight="1">
+    <row r="48" spans="1:385" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>68</v>
       </c>
@@ -6262,7 +6275,7 @@
       <c r="NT48" s="15"/>
       <c r="NU48" s="15"/>
     </row>
-    <row r="49" spans="1:385" s="13" customFormat="1" ht="28">
+    <row r="49" spans="1:385" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>68</v>
       </c>
@@ -6685,7 +6698,7 @@
       <c r="NT49" s="15"/>
       <c r="NU49" s="15"/>
     </row>
-    <row r="50" spans="1:385" s="13" customFormat="1" ht="28">
+    <row r="50" spans="1:385" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="s">
         <v>68</v>
       </c>
@@ -7106,7 +7119,7 @@
       <c r="NT50" s="15"/>
       <c r="NU50" s="15"/>
     </row>
-    <row r="51" spans="1:385" s="13" customFormat="1" ht="28">
+    <row r="51" spans="1:385" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
@@ -7527,7 +7540,7 @@
       <c r="NT51" s="15"/>
       <c r="NU51" s="15"/>
     </row>
-    <row r="52" spans="1:385" s="13" customFormat="1">
+    <row r="52" spans="1:385" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>68</v>
       </c>
@@ -7946,7 +7959,7 @@
       <c r="NT52" s="15"/>
       <c r="NU52" s="15"/>
     </row>
-    <row r="53" spans="1:385" s="13" customFormat="1">
+    <row r="53" spans="1:385" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>68</v>
       </c>
@@ -8353,7 +8366,7 @@
       <c r="NT53" s="15"/>
       <c r="NU53" s="15"/>
     </row>
-    <row r="54" spans="1:385" ht="28">
+    <row r="54" spans="1:385" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>68</v>
       </c>
@@ -8774,7 +8787,7 @@
       <c r="NT54" s="15"/>
       <c r="NU54" s="15"/>
     </row>
-    <row r="55" spans="1:385" ht="56">
+    <row r="55" spans="1:385" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>68</v>
       </c>
@@ -9193,7 +9206,7 @@
       <c r="NT55" s="15"/>
       <c r="NU55" s="15"/>
     </row>
-    <row r="56" spans="1:385" ht="32.25" customHeight="1">
+    <row r="56" spans="1:385" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -9580,7 +9593,7 @@
       <c r="NT56" s="15"/>
       <c r="NU56" s="15"/>
     </row>
-    <row r="57" spans="1:385">
+    <row r="57" spans="1:385" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -9967,7 +9980,7 @@
       <c r="NT57" s="15"/>
       <c r="NU57" s="15"/>
     </row>
-    <row r="58" spans="1:385">
+    <row r="58" spans="1:385" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -9990,76 +10003,69 @@
       <c r="T58" s="39"/>
       <c r="U58" s="22"/>
     </row>
-    <row r="59" spans="1:385">
+    <row r="59" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U59" s="22"/>
     </row>
-    <row r="60" spans="1:385">
+    <row r="60" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U60" s="22"/>
     </row>
-    <row r="61" spans="1:385">
+    <row r="61" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U61" s="22"/>
     </row>
-    <row r="62" spans="1:385">
+    <row r="62" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U62" s="22"/>
     </row>
-    <row r="63" spans="1:385">
+    <row r="63" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U63" s="22"/>
     </row>
-    <row r="64" spans="1:385">
+    <row r="64" spans="1:385" x14ac:dyDescent="0.25">
       <c r="U64" s="22"/>
     </row>
-    <row r="65" spans="21:22">
+    <row r="65" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U65" s="22"/>
     </row>
-    <row r="66" spans="21:22">
+    <row r="66" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U66" s="22"/>
     </row>
-    <row r="67" spans="21:22">
+    <row r="67" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U67" s="22"/>
     </row>
-    <row r="68" spans="21:22">
+    <row r="68" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U68" s="22"/>
     </row>
-    <row r="69" spans="21:22">
+    <row r="69" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U69" s="22"/>
     </row>
-    <row r="70" spans="21:22">
+    <row r="70" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U70" s="22"/>
       <c r="V70" s="23"/>
     </row>
-    <row r="71" spans="21:22">
+    <row r="71" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U71" s="22"/>
     </row>
-    <row r="72" spans="21:22">
+    <row r="72" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U72" s="22"/>
     </row>
-    <row r="73" spans="21:22">
+    <row r="73" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U73" s="22"/>
     </row>
-    <row r="74" spans="21:22">
+    <row r="74" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U74" s="22"/>
     </row>
-    <row r="75" spans="21:22">
+    <row r="75" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U75" s="22"/>
     </row>
-    <row r="76" spans="21:22">
+    <row r="76" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U76" s="22"/>
     </row>
-    <row r="77" spans="21:22">
+    <row r="77" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U77" s="22"/>
     </row>
-    <row r="78" spans="21:22">
+    <row r="78" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -10073,6 +10079,13 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10131,16 +10144,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -10163,7 +10176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -10184,7 +10197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -10205,7 +10218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -10222,7 +10235,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -10239,7 +10252,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -10254,7 +10267,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -10267,7 +10280,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -10280,7 +10293,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -10293,7 +10306,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -10306,7 +10319,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -10321,7 +10334,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -10336,7 +10349,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -10351,7 +10364,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -10366,7 +10379,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -10379,7 +10392,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -10392,7 +10405,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -10405,7 +10418,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -10418,7 +10431,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -10431,7 +10444,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -10444,7 +10457,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -10457,7 +10470,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -10470,7 +10483,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -10483,7 +10496,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -10496,7 +10509,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -10507,7 +10520,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -10518,7 +10531,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -10529,7 +10542,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -10540,7 +10553,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -10551,7 +10564,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -10562,7 +10575,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -10573,7 +10586,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -10584,7 +10597,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -10595,7 +10608,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -10606,7 +10619,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -10617,7 +10630,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -10628,7 +10641,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -10639,7 +10652,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -10650,7 +10663,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -10661,7 +10674,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -10670,7 +10683,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -10679,7 +10692,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10688,7 +10701,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10697,7 +10710,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10706,7 +10719,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10715,7 +10728,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -10724,7 +10737,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -10733,7 +10746,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -10742,7 +10755,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -10751,7 +10764,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
